--- a/agents/agent_profiles.xlsx
+++ b/agents/agent_profiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/dev/Synthetic_Modeling/Synthetic_Modeling/agents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F8647F1-E0C6-E647-B0E0-0BA2AA7AC8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3060524-41DF-EC48-A5A7-CCDDD71CF5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="1520" windowWidth="27580" windowHeight="14320" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Merchants!$A$1:$N$172</definedName>
-    <definedName name="ExternalData_1" localSheetId="3" hidden="1">Combined_Data!$A$1:$AH$208</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">Combined_Data!$A$1:$AC$208</definedName>
     <definedName name="ExternalData_2" localSheetId="2" hidden="1">People!$A$1:$Q$11</definedName>
     <definedName name="ExternalData_3" localSheetId="1" hidden="1">'Companies1'!$A$1:$R$24</definedName>
     <definedName name="ExternalData_4" localSheetId="0" hidden="1">Merchants2!$A$1:$N$172</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4729" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4695" uniqueCount="617">
   <si>
     <t>swift_code</t>
   </si>
@@ -1913,6 +1913,9 @@
   </si>
   <si>
     <t>bank_type</t>
+  </si>
+  <si>
+    <t>BANK0513</t>
   </si>
 </sst>
 </file>
@@ -2031,7 +2034,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="71">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -2284,24 +2302,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -2528,7 +2528,7 @@
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{ACC506A1-52F7-5B4D-99DF-9AB64ADECA6E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="35">
-    <queryTableFields count="34">
+    <queryTableFields count="29">
       <queryTableField id="1" name="entity_id" tableColumnId="1"/>
       <queryTableField id="2" name="type" tableColumnId="2"/>
       <queryTableField id="3" name="sends" tableColumnId="3"/>
@@ -2545,15 +2545,10 @@
       <queryTableField id="14" name="business_address" tableColumnId="14"/>
       <queryTableField id="15" name="bank" tableColumnId="15"/>
       <queryTableField id="16" name="account_number" tableColumnId="16"/>
-      <queryTableField id="17" name="monthly_revenue_range" tableColumnId="17"/>
       <queryTableField id="18" name="merchant_patterns" tableColumnId="18"/>
       <queryTableField id="19" name="transaction_scaler" tableColumnId="19"/>
       <queryTableField id="20" name="account_holder_name" tableColumnId="20"/>
       <queryTableField id="21" name="phone_number" tableColumnId="21"/>
-      <queryTableField id="22" name="location" tableColumnId="22"/>
-      <queryTableField id="23" name="value_lower_limit" tableColumnId="23"/>
-      <queryTableField id="24" name="value_upper_limit" tableColumnId="24"/>
-      <queryTableField id="25" name="refund_behavior" tableColumnId="25"/>
       <queryTableField id="26" name="accepted_payment_methods" tableColumnId="26"/>
       <queryTableField id="27" name="average_expense" tableColumnId="27"/>
       <queryTableField id="28" name="ssn" tableColumnId="28"/>
@@ -2564,6 +2559,13 @@
       <queryTableField id="33" name="merchants" tableColumnId="33"/>
       <queryTableField id="34" name="merchant_frequency" tableColumnId="34"/>
     </queryTableFields>
+    <queryTableDeletedFields count="5">
+      <deletedField name="monthly_revenue_range"/>
+      <deletedField name="location"/>
+      <deletedField name="value_lower_limit"/>
+      <deletedField name="value_upper_limit"/>
+      <deletedField name="refund_behavior"/>
+    </queryTableDeletedFields>
   </queryTableRefresh>
 </queryTable>
 </file>
@@ -2572,19 +2574,19 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{05317259-789C-334F-ADE7-B048008E44CA}" name="Merchants2" displayName="Merchants2" ref="A1:N172" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:N172" xr:uid="{05317259-789C-334F-ADE7-B048008E44CA}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{1B86BC82-4EB7-C94C-A7C9-274D1D7948BC}" uniqueName="1" name="entity_id" queryTableFieldId="1" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{ACE8C16C-4DDD-2347-AB9C-E87B87305688}" uniqueName="2" name="sends" queryTableFieldId="2" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{DA17EF3C-9E0A-CA47-BDFB-FFA959C13EA4}" uniqueName="3" name="receives" queryTableFieldId="3" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{ED0D60D2-98CF-464E-917F-60B5EAD47F85}" uniqueName="4" name="name" queryTableFieldId="4" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{1B86BC82-4EB7-C94C-A7C9-274D1D7948BC}" uniqueName="1" name="entity_id" queryTableFieldId="1" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{ACE8C16C-4DDD-2347-AB9C-E87B87305688}" uniqueName="2" name="sends" queryTableFieldId="2" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{DA17EF3C-9E0A-CA47-BDFB-FFA959C13EA4}" uniqueName="3" name="receives" queryTableFieldId="3" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{ED0D60D2-98CF-464E-917F-60B5EAD47F85}" uniqueName="4" name="name" queryTableFieldId="4" dataDxfId="67"/>
     <tableColumn id="5" xr3:uid="{2AB3D3D6-135E-CA4D-84F2-4605E9A8D679}" uniqueName="5" name="naics_code" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{D3E06BD7-287C-2D4E-8225-8B367C6615F3}" uniqueName="6" name="naics_description" queryTableFieldId="6" dataDxfId="67"/>
-    <tableColumn id="7" xr3:uid="{8D52C161-97E6-1B46-B3F4-B4B948F74C3F}" uniqueName="7" name="location" queryTableFieldId="7" dataDxfId="66"/>
+    <tableColumn id="6" xr3:uid="{D3E06BD7-287C-2D4E-8225-8B367C6615F3}" uniqueName="6" name="naics_description" queryTableFieldId="6" dataDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{8D52C161-97E6-1B46-B3F4-B4B948F74C3F}" uniqueName="7" name="location" queryTableFieldId="7" dataDxfId="65"/>
     <tableColumn id="8" xr3:uid="{2FB41B4D-756E-5945-B880-BE330B330B05}" uniqueName="8" name="bank" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{5830C0F0-7248-3E46-9434-DF6D1A7A1DC0}" uniqueName="9" name="account_number" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{9F2F001A-AAEB-0742-9B7F-260FA4607EA7}" uniqueName="10" name="value_lower_limit" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{3F98B845-7C5A-8A45-B305-C3E7A829370F}" uniqueName="11" name="value_upper_limit" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{0FD1EBE8-7346-C04D-9B7C-DC7E10910485}" uniqueName="12" name="refund_behavior" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{7303CB37-37E7-0A4C-8597-0EB5CDF081F7}" uniqueName="13" name="accepted_payment_methods" queryTableFieldId="13" dataDxfId="65"/>
+    <tableColumn id="13" xr3:uid="{7303CB37-37E7-0A4C-8597-0EB5CDF081F7}" uniqueName="13" name="accepted_payment_methods" queryTableFieldId="13" dataDxfId="64"/>
     <tableColumn id="14" xr3:uid="{E77BEA3D-56FF-6140-9CDF-BF336F1A4076}" uniqueName="14" name="average_expense" queryTableFieldId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2595,24 +2597,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FA669BB7-CFD9-4B4E-93E4-6F9A295BCE61}" name="Companies1" displayName="Companies1" ref="A1:R24" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:R24" xr:uid="{FA669BB7-CFD9-4B4E-93E4-6F9A295BCE61}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{647D26B0-3353-6D48-A6E7-330FB3419ECE}" uniqueName="1" name="entity_id" queryTableFieldId="1" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{838B6B56-983F-9F4C-87C6-9B94D8374A4A}" uniqueName="2" name="type" queryTableFieldId="2" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{A24AF2B6-C7E9-C641-9B7E-78720D66CBDE}" uniqueName="3" name="sends" queryTableFieldId="3" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{38A0A558-89F7-364B-9608-48008BB2B74D}" uniqueName="4" name="receives" queryTableFieldId="4" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{2D7577A0-8196-B14C-9377-5C6F76583EC5}" uniqueName="5" name="name" queryTableFieldId="5" dataDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{57ACA87D-66B9-A545-9EDC-A9879DF6FFF2}" uniqueName="6" name="EIN" queryTableFieldId="6" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{647D26B0-3353-6D48-A6E7-330FB3419ECE}" uniqueName="1" name="entity_id" queryTableFieldId="1" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{838B6B56-983F-9F4C-87C6-9B94D8374A4A}" uniqueName="2" name="type" queryTableFieldId="2" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{A24AF2B6-C7E9-C641-9B7E-78720D66CBDE}" uniqueName="3" name="sends" queryTableFieldId="3" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{38A0A558-89F7-364B-9608-48008BB2B74D}" uniqueName="4" name="receives" queryTableFieldId="4" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{2D7577A0-8196-B14C-9377-5C6F76583EC5}" uniqueName="5" name="name" queryTableFieldId="5" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{57ACA87D-66B9-A545-9EDC-A9879DF6FFF2}" uniqueName="6" name="EIN" queryTableFieldId="6" dataDxfId="58"/>
     <tableColumn id="7" xr3:uid="{E4B9361A-5D68-2B45-B694-C0AE0CA9C1A0}" uniqueName="7" name="naics_code" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{CAB509CF-50B9-7A4F-8E72-B4001114F3ED}" uniqueName="8" name="naics_description" queryTableFieldId="8" dataDxfId="58"/>
+    <tableColumn id="8" xr3:uid="{CAB509CF-50B9-7A4F-8E72-B4001114F3ED}" uniqueName="8" name="naics_description" queryTableFieldId="8" dataDxfId="57"/>
     <tableColumn id="9" xr3:uid="{F9E74F0F-1AFA-2E46-94E9-10CAA49287FE}" uniqueName="9" name="incorporation_date" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{D2AB2847-E9BD-A446-801F-759470F5A3DB}" uniqueName="10" name="business_address" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{BC8AF4C2-BAE1-374A-8DDC-D912EEF6C4A1}" uniqueName="11" name="bank" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{C54F9C09-1134-FE45-A165-FF173E3279B1}" uniqueName="12" name="account_number" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{14577851-9488-5641-AF1D-00F13C85AEC3}" uniqueName="13" name="monthly_revenue_range" queryTableFieldId="13" dataDxfId="57"/>
-    <tableColumn id="14" xr3:uid="{399BAB54-65DC-1748-8717-00778F7FB219}" uniqueName="14" name="merchant_patterns" queryTableFieldId="14" dataDxfId="56"/>
+    <tableColumn id="13" xr3:uid="{14577851-9488-5641-AF1D-00F13C85AEC3}" uniqueName="13" name="monthly_revenue_range" queryTableFieldId="13" dataDxfId="56"/>
+    <tableColumn id="14" xr3:uid="{399BAB54-65DC-1748-8717-00778F7FB219}" uniqueName="14" name="merchant_patterns" queryTableFieldId="14" dataDxfId="55"/>
     <tableColumn id="15" xr3:uid="{D53B081F-B5DD-5849-844A-A6A6F9BD5909}" uniqueName="15" name="transaction_scaler" queryTableFieldId="15"/>
-    <tableColumn id="16" xr3:uid="{31C06262-0A44-2D49-A462-43F9933174EA}" uniqueName="16" name="account_holder_name" queryTableFieldId="16" dataDxfId="55"/>
-    <tableColumn id="17" xr3:uid="{136EACFC-9329-124C-9F05-CDCB0D4D52B2}" uniqueName="17" name="address" queryTableFieldId="17" dataDxfId="54"/>
-    <tableColumn id="18" xr3:uid="{32A326E5-AB2F-0946-93E1-DB967AA66E3C}" uniqueName="18" name="phone_number" queryTableFieldId="18" dataDxfId="53"/>
+    <tableColumn id="16" xr3:uid="{31C06262-0A44-2D49-A462-43F9933174EA}" uniqueName="16" name="account_holder_name" queryTableFieldId="16" dataDxfId="54"/>
+    <tableColumn id="17" xr3:uid="{136EACFC-9329-124C-9F05-CDCB0D4D52B2}" uniqueName="17" name="address" queryTableFieldId="17" dataDxfId="53"/>
+    <tableColumn id="18" xr3:uid="{32A326E5-AB2F-0946-93E1-DB967AA66E3C}" uniqueName="18" name="phone_number" queryTableFieldId="18" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2622,73 +2624,68 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A97DEA9F-CCFF-1C44-A94E-E41B02CF7054}" name="People_1" displayName="People_1" ref="A1:Q11" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:Q11" xr:uid="{A97DEA9F-CCFF-1C44-A94E-E41B02CF7054}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{F96F13FF-DF76-8448-83F1-C26BC26389BD}" uniqueName="1" name="entity_id" queryTableFieldId="1" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{B9FCC42D-ACC3-6249-BF7A-784D1DBC42D0}" uniqueName="2" name="type" queryTableFieldId="2" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{DD351EC1-8231-4C4E-8478-55D8E5F261E4}" uniqueName="3" name="sends" queryTableFieldId="3" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{148189CE-27A7-D645-B51B-DA3D514C14C7}" uniqueName="4" name="receives" queryTableFieldId="4" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{CB2206C6-B311-FE46-976B-2DE3203E932C}" uniqueName="5" name="name" queryTableFieldId="5" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{97276290-F666-FF4C-9F65-D8D5D7847B53}" uniqueName="6" name="ssn" queryTableFieldId="6" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{7DC3D435-5CC8-A14D-ABEB-77131FA764B2}" uniqueName="7" name="dob" queryTableFieldId="7" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{D7A4D3B1-4AB5-3A47-BD16-9B8C381DE6A7}" uniqueName="8" name="address" queryTableFieldId="8" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{E196A340-C3F1-CE41-8D3F-2A4E86B9872B}" uniqueName="9" name="phone_number" queryTableFieldId="9" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{6847E4B4-D9F3-8541-AE19-A02F90E8EEB1}" uniqueName="10" name="email" queryTableFieldId="10" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{F96F13FF-DF76-8448-83F1-C26BC26389BD}" uniqueName="1" name="entity_id" queryTableFieldId="1" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{B9FCC42D-ACC3-6249-BF7A-784D1DBC42D0}" uniqueName="2" name="type" queryTableFieldId="2" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{DD351EC1-8231-4C4E-8478-55D8E5F261E4}" uniqueName="3" name="sends" queryTableFieldId="3" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{148189CE-27A7-D645-B51B-DA3D514C14C7}" uniqueName="4" name="receives" queryTableFieldId="4" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{CB2206C6-B311-FE46-976B-2DE3203E932C}" uniqueName="5" name="name" queryTableFieldId="5" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{97276290-F666-FF4C-9F65-D8D5D7847B53}" uniqueName="6" name="ssn" queryTableFieldId="6" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{7DC3D435-5CC8-A14D-ABEB-77131FA764B2}" uniqueName="7" name="dob" queryTableFieldId="7" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{D7A4D3B1-4AB5-3A47-BD16-9B8C381DE6A7}" uniqueName="8" name="address" queryTableFieldId="8" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{E196A340-C3F1-CE41-8D3F-2A4E86B9872B}" uniqueName="9" name="phone_number" queryTableFieldId="9" dataDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{6847E4B4-D9F3-8541-AE19-A02F90E8EEB1}" uniqueName="10" name="email" queryTableFieldId="10" dataDxfId="42"/>
     <tableColumn id="11" xr3:uid="{49443B9C-6DB4-5E4A-B78F-98E5EC8AC040}" uniqueName="11" name="bank" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{3CCC0332-D016-534F-8A01-8A6A6BAEDD2F}" uniqueName="12" name="account_number" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{3CD7D524-5AED-1F41-8874-93BF8BEC6A2E}" uniqueName="13" name="employment_status" queryTableFieldId="13" dataDxfId="42"/>
-    <tableColumn id="14" xr3:uid="{0D879195-9D4D-8844-8596-F384504FA478}" uniqueName="14" name="income_level" queryTableFieldId="14" dataDxfId="41"/>
+    <tableColumn id="13" xr3:uid="{3CD7D524-5AED-1F41-8874-93BF8BEC6A2E}" uniqueName="13" name="employment_status" queryTableFieldId="13" dataDxfId="41"/>
+    <tableColumn id="14" xr3:uid="{0D879195-9D4D-8844-8596-F384504FA478}" uniqueName="14" name="income_level" queryTableFieldId="14" dataDxfId="40"/>
     <tableColumn id="15" xr3:uid="{240B4D16-A3D0-D64B-AD8C-7D5C319DB229}" uniqueName="15" name="transaction_scaler" queryTableFieldId="15"/>
-    <tableColumn id="16" xr3:uid="{ED01CFBB-F0D5-EA4E-B2BD-225342C5FF70}" uniqueName="16" name="merchants" queryTableFieldId="16" dataDxfId="40"/>
-    <tableColumn id="17" xr3:uid="{03AB70E6-9545-9844-AD1F-9FCB7EDE88A6}" uniqueName="17" name="merchant_frequency" queryTableFieldId="17" dataDxfId="39"/>
+    <tableColumn id="16" xr3:uid="{ED01CFBB-F0D5-EA4E-B2BD-225342C5FF70}" uniqueName="16" name="merchants" queryTableFieldId="16" dataDxfId="39"/>
+    <tableColumn id="17" xr3:uid="{03AB70E6-9545-9844-AD1F-9FCB7EDE88A6}" uniqueName="17" name="merchant_frequency" queryTableFieldId="17" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{095934DA-9ED1-C64A-A986-A600E8D8159D}" name="banks_1" displayName="banks_1" ref="A1:AH208" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:AH208" xr:uid="{095934DA-9ED1-C64A-A986-A600E8D8159D}"/>
-  <tableColumns count="34">
-    <tableColumn id="1" xr3:uid="{59322D9A-06B0-564F-8F5C-99D731120C91}" uniqueName="1" name="entity_id" queryTableFieldId="1" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{C741D0C3-8849-2346-8084-47B9D3E61BD9}" uniqueName="2" name="type" queryTableFieldId="2" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{03348FA0-07EC-514A-A3F9-1702587287C8}" uniqueName="3" name="sends" queryTableFieldId="3" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{665AD73D-C4D2-6A40-BA4A-1DB11D06BCDF}" uniqueName="4" name="receives" queryTableFieldId="4" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{33A23690-CC11-7044-A662-91133EEDD637}" uniqueName="5" name="name" queryTableFieldId="5" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{326B6900-7A5A-3740-88AF-7ED1362A65C7}" uniqueName="6" name="swift_code" queryTableFieldId="6" dataDxfId="33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{095934DA-9ED1-C64A-A986-A600E8D8159D}" name="banks_1" displayName="banks_1" ref="A1:AC208" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:AC208" xr:uid="{095934DA-9ED1-C64A-A986-A600E8D8159D}"/>
+  <tableColumns count="29">
+    <tableColumn id="1" xr3:uid="{59322D9A-06B0-564F-8F5C-99D731120C91}" uniqueName="1" name="entity_id" queryTableFieldId="1" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{C741D0C3-8849-2346-8084-47B9D3E61BD9}" uniqueName="2" name="type" queryTableFieldId="2" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{03348FA0-07EC-514A-A3F9-1702587287C8}" uniqueName="3" name="sends" queryTableFieldId="3" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{665AD73D-C4D2-6A40-BA4A-1DB11D06BCDF}" uniqueName="4" name="receives" queryTableFieldId="4" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{33A23690-CC11-7044-A662-91133EEDD637}" uniqueName="5" name="name" queryTableFieldId="5" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{326B6900-7A5A-3740-88AF-7ED1362A65C7}" uniqueName="6" name="swift_code" queryTableFieldId="6" dataDxfId="32"/>
     <tableColumn id="7" xr3:uid="{137B2CAC-1C1C-A640-B21F-8944DF4BFEAF}" uniqueName="7" name="aba_routing_number" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{76FB897F-162E-4D4E-AD47-DC72D4AEDB70}" uniqueName="8" name="address" queryTableFieldId="8" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{00C710E1-3082-5A4D-8223-7F9FBBBC2C27}" uniqueName="9" name="bank_type" queryTableFieldId="9" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{74FB91F3-88CF-984E-AF41-C8993FEE602E}" uniqueName="10" name="EIN" queryTableFieldId="10" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{76FB897F-162E-4D4E-AD47-DC72D4AEDB70}" uniqueName="8" name="address" queryTableFieldId="8" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{00C710E1-3082-5A4D-8223-7F9FBBBC2C27}" uniqueName="9" name="bank_type" queryTableFieldId="9" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{74FB91F3-88CF-984E-AF41-C8993FEE602E}" uniqueName="10" name="EIN" queryTableFieldId="10" dataDxfId="29"/>
     <tableColumn id="11" xr3:uid="{0B830FDB-66DC-4447-8627-217859C98B93}" uniqueName="11" name="naics_code" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{3D0D6912-BC0C-A746-BE35-186F1D3BDB25}" uniqueName="12" name="naics_description" queryTableFieldId="12" dataDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{748E761C-0347-2549-8C90-6732E9BC1693}" uniqueName="13" name="incorporation_date" queryTableFieldId="13"/>
+    <tableColumn id="12" xr3:uid="{3D0D6912-BC0C-A746-BE35-186F1D3BDB25}" uniqueName="12" name="naics_description" queryTableFieldId="12" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{748E761C-0347-2549-8C90-6732E9BC1693}" uniqueName="13" name="incorporation_date" queryTableFieldId="13" dataDxfId="3"/>
     <tableColumn id="14" xr3:uid="{73D3F1E8-0CB6-3940-9DBF-52418C53386C}" uniqueName="14" name="business_address" queryTableFieldId="14"/>
     <tableColumn id="15" xr3:uid="{A4FF23AD-D116-6D49-A1DB-E8110AC63A4E}" uniqueName="15" name="bank" queryTableFieldId="15"/>
     <tableColumn id="16" xr3:uid="{F5FB587C-2C4D-1E44-A65B-2589B849CB46}" uniqueName="16" name="account_number" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{04D533BA-1012-0745-88E5-E96F9311C095}" uniqueName="17" name="monthly_revenue_range" queryTableFieldId="17" dataDxfId="28"/>
-    <tableColumn id="18" xr3:uid="{C3C1D91F-AC57-ED4A-978C-1C3FC485324A}" uniqueName="18" name="merchant_patterns" queryTableFieldId="18" dataDxfId="27"/>
+    <tableColumn id="18" xr3:uid="{C3C1D91F-AC57-ED4A-978C-1C3FC485324A}" uniqueName="18" name="merchant_patterns" queryTableFieldId="18" dataDxfId="28"/>
     <tableColumn id="19" xr3:uid="{56AA05C1-F5A2-BA45-B75F-E88884B01510}" uniqueName="19" name="transaction_scaler" queryTableFieldId="19"/>
-    <tableColumn id="20" xr3:uid="{F4299F90-C7DF-3240-A964-E343E8F23B5F}" uniqueName="20" name="account_holder_name" queryTableFieldId="20" dataDxfId="26"/>
-    <tableColumn id="21" xr3:uid="{C42CB5B1-AEB2-A845-AB0C-C63D3B74D190}" uniqueName="21" name="phone_number" queryTableFieldId="21" dataDxfId="25"/>
-    <tableColumn id="22" xr3:uid="{99EE48B4-9F96-134F-8177-5934BD211107}" uniqueName="22" name="location" queryTableFieldId="22" dataDxfId="24"/>
-    <tableColumn id="23" xr3:uid="{98FFFAC1-165A-9F45-9881-09AEDAE292AC}" uniqueName="23" name="value_lower_limit" queryTableFieldId="23"/>
-    <tableColumn id="24" xr3:uid="{CEA1FDF5-C085-E04B-B0AD-4C7249BCD26F}" uniqueName="24" name="value_upper_limit" queryTableFieldId="24"/>
-    <tableColumn id="25" xr3:uid="{7A2930D5-0F66-FF48-8CEA-AAF81BF9A7D2}" uniqueName="25" name="refund_behavior" queryTableFieldId="25"/>
-    <tableColumn id="26" xr3:uid="{F5EFBEBE-C969-6340-A872-E6AC90B8F197}" uniqueName="26" name="accepted_payment_methods" queryTableFieldId="26" dataDxfId="23"/>
+    <tableColumn id="20" xr3:uid="{F4299F90-C7DF-3240-A964-E343E8F23B5F}" uniqueName="20" name="account_holder_name" queryTableFieldId="20" dataDxfId="27"/>
+    <tableColumn id="21" xr3:uid="{C42CB5B1-AEB2-A845-AB0C-C63D3B74D190}" uniqueName="21" name="phone_number" queryTableFieldId="21" dataDxfId="26"/>
+    <tableColumn id="26" xr3:uid="{F5EFBEBE-C969-6340-A872-E6AC90B8F197}" uniqueName="26" name="accepted_payment_methods" queryTableFieldId="26" dataDxfId="25"/>
     <tableColumn id="27" xr3:uid="{74643C0A-2014-0246-934F-6242EE61E703}" uniqueName="27" name="average_expense" queryTableFieldId="27"/>
-    <tableColumn id="28" xr3:uid="{C86109AA-888F-DA43-A89A-E4FCFC1B6314}" uniqueName="28" name="ssn" queryTableFieldId="28" dataDxfId="22"/>
-    <tableColumn id="29" xr3:uid="{F9C6E63F-4181-8940-9563-D07A6A4E2C6A}" uniqueName="29" name="dob" queryTableFieldId="29" dataDxfId="21"/>
-    <tableColumn id="30" xr3:uid="{97FB6244-389F-3441-BB37-351B806D40F0}" uniqueName="30" name="email" queryTableFieldId="30" dataDxfId="20"/>
-    <tableColumn id="31" xr3:uid="{82EE3E36-C572-9041-BD78-EFB7583DB816}" uniqueName="31" name="employment_status" queryTableFieldId="31" dataDxfId="19"/>
-    <tableColumn id="32" xr3:uid="{BE4F97CE-C42D-5743-97AD-28D743A9F484}" uniqueName="32" name="income_level" queryTableFieldId="32" dataDxfId="18"/>
-    <tableColumn id="33" xr3:uid="{5AE23FB5-02D8-DB46-8191-A9DF4DAB40EC}" uniqueName="33" name="merchants" queryTableFieldId="33" dataDxfId="17"/>
-    <tableColumn id="34" xr3:uid="{47E74BEC-37E8-1241-8FC2-797714353567}" uniqueName="34" name="merchant_frequency" queryTableFieldId="34" dataDxfId="16"/>
+    <tableColumn id="28" xr3:uid="{C86109AA-888F-DA43-A89A-E4FCFC1B6314}" uniqueName="28" name="ssn" queryTableFieldId="28" dataDxfId="2"/>
+    <tableColumn id="29" xr3:uid="{F9C6E63F-4181-8940-9563-D07A6A4E2C6A}" uniqueName="29" name="dob" queryTableFieldId="29" dataDxfId="0"/>
+    <tableColumn id="30" xr3:uid="{97FB6244-389F-3441-BB37-351B806D40F0}" uniqueName="30" name="email" queryTableFieldId="30" dataDxfId="1"/>
+    <tableColumn id="31" xr3:uid="{82EE3E36-C572-9041-BD78-EFB7583DB816}" uniqueName="31" name="employment_status" queryTableFieldId="31" dataDxfId="24"/>
+    <tableColumn id="32" xr3:uid="{BE4F97CE-C42D-5743-97AD-28D743A9F484}" uniqueName="32" name="income_level" queryTableFieldId="32" dataDxfId="23"/>
+    <tableColumn id="33" xr3:uid="{5AE23FB5-02D8-DB46-8191-A9DF4DAB40EC}" uniqueName="33" name="merchants" queryTableFieldId="33" dataDxfId="22"/>
+    <tableColumn id="34" xr3:uid="{47E74BEC-37E8-1241-8FC2-797714353567}" uniqueName="34" name="merchant_frequency" queryTableFieldId="34" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D578B23E-8A83-F04B-971E-ED2B42F718A1}" name="banks" displayName="banks" ref="A1:I4" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D578B23E-8A83-F04B-971E-ED2B42F718A1}" name="banks" displayName="banks" ref="A1:I4" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="A1:I4" xr:uid="{D578B23E-8A83-F04B-971E-ED2B42F718A1}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{652A7AEC-C2AF-6949-AFA4-378DC8BDCD38}" name="entity_id"/>
@@ -2706,7 +2703,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{680087BA-8ED1-D24F-B249-1ED76B0B1B9E}" name="People" displayName="People" ref="A1:Q11" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{680087BA-8ED1-D24F-B249-1ED76B0B1B9E}" name="People" displayName="People" ref="A1:Q11" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="A1:Q11" xr:uid="{680087BA-8ED1-D24F-B249-1ED76B0B1B9E}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{454C68CE-6D61-204B-8CB8-44035D7E6904}" name="entity_id"/>
@@ -2715,7 +2712,7 @@
     <tableColumn id="17" xr3:uid="{30F1D7AE-6D87-5D40-B29A-78CA0DE7F06C}" name="receives"/>
     <tableColumn id="2" xr3:uid="{57B20931-29A8-9F4C-A212-F984003332F2}" name="name"/>
     <tableColumn id="3" xr3:uid="{48A29B0A-4432-1B45-9F51-5A71C80B8383}" name="ssn"/>
-    <tableColumn id="4" xr3:uid="{250F10FA-321E-A549-B726-1E6FAE9F2E4D}" name="dob" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{250F10FA-321E-A549-B726-1E6FAE9F2E4D}" name="dob" dataDxfId="16"/>
     <tableColumn id="5" xr3:uid="{625759B0-9657-4F48-8A10-244F3B1141B4}" name="address"/>
     <tableColumn id="6" xr3:uid="{EE634EB5-84E3-8940-B16A-6AD4A2313C1B}" name="phone_number"/>
     <tableColumn id="7" xr3:uid="{B4766EFC-E431-924D-B2CE-8B9E28ADD644}" name="email"/>
@@ -2724,7 +2721,7 @@
     <tableColumn id="10" xr3:uid="{32052348-F470-2645-85B2-7E6468A98911}" name="employment_status"/>
     <tableColumn id="11" xr3:uid="{4EECB0F8-CF71-B743-A3CC-AE0E1DC4EEBE}" name="income_level"/>
     <tableColumn id="12" xr3:uid="{3436FD50-2241-464F-A1DD-E2A6DFCCE0A9}" name="transaction_scaler"/>
-    <tableColumn id="13" xr3:uid="{97F0A11E-C7E6-0E4D-94E0-B5F1FB994AA4}" name="merchants" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{97F0A11E-C7E6-0E4D-94E0-B5F1FB994AA4}" name="merchants" dataDxfId="15"/>
     <tableColumn id="14" xr3:uid="{8E606808-4DE2-2347-ACA6-1C61515AFA5D}" name="merchant_frequency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2732,7 +2729,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8C51F29F-5B06-934C-A68B-AD622BF87CD5}" name="Companies" displayName="Companies" ref="A1:R24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8C51F29F-5B06-934C-A68B-AD622BF87CD5}" name="Companies" displayName="Companies" ref="A1:R24" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
   <autoFilter ref="A1:R24" xr:uid="{8C51F29F-5B06-934C-A68B-AD622BF87CD5}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0A99A065-B668-E044-A806-53D986FCB20F}" name="entity_id"/>
@@ -2750,16 +2747,16 @@
     <tableColumn id="10" xr3:uid="{C1DBD6D2-715C-C24C-839F-94822A7BE075}" name="monthly_revenue_range"/>
     <tableColumn id="11" xr3:uid="{89523FD3-452C-5B4C-95CB-85E274C177F2}" name="merchant_patterns"/>
     <tableColumn id="12" xr3:uid="{8EDA4FA0-6545-394F-A0B8-F4B1D86840AA}" name="transaction_scaler"/>
-    <tableColumn id="13" xr3:uid="{46A96246-7DEF-084A-81CC-EEB4B58D40D9}" name="account_holder_name" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{18052DA4-9FA2-A942-B9AF-F9A8C5FD30B2}" name="address" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{E4CE4E44-EE71-E446-85B9-0AB6003C1DAD}" name="phone_number" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{46A96246-7DEF-084A-81CC-EEB4B58D40D9}" name="account_holder_name" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{18052DA4-9FA2-A942-B9AF-F9A8C5FD30B2}" name="address" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{E4CE4E44-EE71-E446-85B9-0AB6003C1DAD}" name="phone_number" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F4F56D53-07F6-DE4C-A300-92F755A46222}" name="Merchants" displayName="Merchants" ref="A1:N172" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F4F56D53-07F6-DE4C-A300-92F755A46222}" name="Merchants" displayName="Merchants" ref="A1:N172" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="A1:N172" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N172">
     <sortCondition descending="1" ref="F1:F172"/>
@@ -10566,9 +10563,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7DD66F-B0D3-2140-9278-779E6CEBA4A6}">
-  <dimension ref="A1:AH208"/>
+  <dimension ref="A1:AC208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10584,31 +10583,27 @@
     <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="69" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="43" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="51.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="51.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>379</v>
       </c>
@@ -10645,7 +10640,7 @@
       <c r="L1" t="s">
         <v>167</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="9" t="s">
         <v>66</v>
       </c>
       <c r="N1" t="s">
@@ -10658,61 +10653,46 @@
         <v>149</v>
       </c>
       <c r="Q1" t="s">
-        <v>68</v>
+        <v>605</v>
       </c>
       <c r="R1" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="S1" t="s">
-        <v>579</v>
+        <v>299</v>
       </c>
       <c r="T1" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="U1" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="V1" t="s">
-        <v>2</v>
+        <v>403</v>
       </c>
       <c r="W1" t="s">
-        <v>164</v>
-      </c>
-      <c r="X1" t="s">
-        <v>165</v>
+        <v>10</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="Y1" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="Z1" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="AA1" t="s">
-        <v>403</v>
+        <v>16</v>
       </c>
       <c r="AB1" t="s">
-        <v>10</v>
+        <v>333</v>
       </c>
       <c r="AC1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>333</v>
-      </c>
-      <c r="AH1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>607</v>
       </c>
@@ -10740,11 +10720,13 @@
       <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="AC2" s="9"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="B3" t="s">
         <v>163</v>
@@ -10770,9 +10752,11 @@
       <c r="I3" t="s">
         <v>150</v>
       </c>
-      <c r="AC3" s="9"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>609</v>
       </c>
@@ -10800,9 +10784,11 @@
       <c r="I4" t="s">
         <v>150</v>
       </c>
-      <c r="AC4" s="9"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>578</v>
       </c>
@@ -10830,7 +10816,7 @@
       <c r="L5" t="s">
         <v>168</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="9">
         <v>43986</v>
       </c>
       <c r="N5" t="s">
@@ -10843,23 +10829,19 @@
         <v>505079988</v>
       </c>
       <c r="Q5" t="s">
-        <v>101</v>
-      </c>
-      <c r="R5" t="s">
         <v>334</v>
       </c>
-      <c r="S5">
+      <c r="R5">
         <v>1</v>
       </c>
+      <c r="S5" t="s">
+        <v>380</v>
+      </c>
       <c r="T5" t="s">
-        <v>380</v>
-      </c>
-      <c r="U5" t="s">
         <v>316</v>
       </c>
-      <c r="AC5" s="9"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -10887,7 +10869,7 @@
       <c r="L6" t="s">
         <v>169</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="9">
         <v>45062</v>
       </c>
       <c r="N6" t="s">
@@ -10900,20 +10882,16 @@
         <v>472561003</v>
       </c>
       <c r="Q6" t="s">
-        <v>102</v>
-      </c>
-      <c r="R6" t="s">
         <v>334</v>
       </c>
-      <c r="S6">
+      <c r="R6">
         <v>2</v>
       </c>
-      <c r="T6" t="s">
+      <c r="S6" t="s">
         <v>381</v>
       </c>
-      <c r="AC6" s="9"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -10941,7 +10919,7 @@
       <c r="L7" t="s">
         <v>170</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="9">
         <v>43776</v>
       </c>
       <c r="N7" t="s">
@@ -10954,20 +10932,16 @@
         <v>112337453</v>
       </c>
       <c r="Q7" t="s">
-        <v>101</v>
-      </c>
-      <c r="R7" t="s">
         <v>335</v>
       </c>
-      <c r="S7">
+      <c r="R7">
         <v>1</v>
       </c>
-      <c r="T7" t="s">
+      <c r="S7" t="s">
         <v>382</v>
       </c>
-      <c r="AC7" s="9"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -10995,7 +10969,7 @@
       <c r="L8" t="s">
         <v>171</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="9">
         <v>42572</v>
       </c>
       <c r="N8" t="s">
@@ -11008,23 +10982,19 @@
         <v>452165939</v>
       </c>
       <c r="Q8" t="s">
-        <v>102</v>
-      </c>
-      <c r="R8" t="s">
         <v>336</v>
       </c>
-      <c r="S8">
+      <c r="R8">
         <v>1.5</v>
       </c>
+      <c r="S8" t="s">
+        <v>388</v>
+      </c>
       <c r="T8" t="s">
-        <v>388</v>
-      </c>
-      <c r="U8" t="s">
         <v>310</v>
       </c>
-      <c r="AC8" s="9"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -11052,7 +11022,7 @@
       <c r="L9" t="s">
         <v>172</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="9">
         <v>44668</v>
       </c>
       <c r="N9" t="s">
@@ -11065,20 +11035,16 @@
         <v>494828429</v>
       </c>
       <c r="Q9" t="s">
-        <v>103</v>
-      </c>
-      <c r="R9" t="s">
         <v>336</v>
       </c>
-      <c r="S9">
+      <c r="R9">
         <v>4</v>
       </c>
-      <c r="T9" t="s">
+      <c r="S9" t="s">
         <v>383</v>
       </c>
-      <c r="AC9" s="9"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -11106,7 +11072,7 @@
       <c r="L10" t="s">
         <v>173</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="9">
         <v>44665</v>
       </c>
       <c r="N10" t="s">
@@ -11119,23 +11085,19 @@
         <v>355955848</v>
       </c>
       <c r="Q10" t="s">
-        <v>102</v>
-      </c>
-      <c r="R10" t="s">
         <v>336</v>
       </c>
-      <c r="S10">
+      <c r="R10">
         <v>1</v>
       </c>
+      <c r="S10" t="s">
+        <v>372</v>
+      </c>
       <c r="T10" t="s">
-        <v>372</v>
-      </c>
-      <c r="U10" t="s">
         <v>311</v>
       </c>
-      <c r="AC10" s="9"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -11163,7 +11125,7 @@
       <c r="L11" t="s">
         <v>174</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="9">
         <v>44457</v>
       </c>
       <c r="N11" t="s">
@@ -11176,23 +11138,19 @@
         <v>405607913</v>
       </c>
       <c r="Q11" t="s">
-        <v>101</v>
-      </c>
-      <c r="R11" t="s">
         <v>336</v>
       </c>
-      <c r="S11">
+      <c r="R11">
         <v>1</v>
       </c>
+      <c r="S11" t="s">
+        <v>384</v>
+      </c>
       <c r="T11" t="s">
-        <v>384</v>
-      </c>
-      <c r="U11" t="s">
         <v>312</v>
       </c>
-      <c r="AC11" s="9"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -11220,7 +11178,7 @@
       <c r="L12" t="s">
         <v>175</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="9">
         <v>44036</v>
       </c>
       <c r="N12" t="s">
@@ -11233,23 +11191,19 @@
         <v>136069862</v>
       </c>
       <c r="Q12" t="s">
-        <v>104</v>
-      </c>
-      <c r="R12" t="s">
         <v>336</v>
       </c>
-      <c r="S12">
+      <c r="R12">
         <v>5</v>
       </c>
+      <c r="S12" t="s">
+        <v>391</v>
+      </c>
       <c r="T12" t="s">
-        <v>391</v>
-      </c>
-      <c r="U12" t="s">
         <v>313</v>
       </c>
-      <c r="AC12" s="9"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -11277,7 +11231,7 @@
       <c r="L13" t="s">
         <v>176</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="9">
         <v>42750</v>
       </c>
       <c r="N13" t="s">
@@ -11290,23 +11244,19 @@
         <v>934072016</v>
       </c>
       <c r="Q13" t="s">
-        <v>104</v>
-      </c>
-      <c r="R13" t="s">
         <v>336</v>
       </c>
-      <c r="S13">
+      <c r="R13">
         <v>1.5</v>
       </c>
+      <c r="S13" t="s">
+        <v>385</v>
+      </c>
       <c r="T13" t="s">
-        <v>385</v>
-      </c>
-      <c r="U13" t="s">
         <v>314</v>
       </c>
-      <c r="AC13" s="9"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -11334,7 +11284,7 @@
       <c r="L14" t="s">
         <v>177</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="9">
         <v>44632</v>
       </c>
       <c r="N14" t="s">
@@ -11347,23 +11297,19 @@
         <v>135383517</v>
       </c>
       <c r="Q14" t="s">
-        <v>101</v>
-      </c>
-      <c r="R14" t="s">
         <v>336</v>
       </c>
-      <c r="S14">
+      <c r="R14">
         <v>0.75</v>
       </c>
+      <c r="S14" t="s">
+        <v>389</v>
+      </c>
       <c r="T14" t="s">
-        <v>389</v>
-      </c>
-      <c r="U14" t="s">
         <v>315</v>
       </c>
-      <c r="AC14" s="9"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>404</v>
       </c>
@@ -11391,24 +11337,23 @@
       <c r="L15" t="s">
         <v>188</v>
       </c>
-      <c r="M15">
-        <v>513</v>
-      </c>
-      <c r="N15">
+      <c r="O15">
+        <v>513</v>
+      </c>
+      <c r="P15">
         <v>898431335</v>
       </c>
-      <c r="R15" t="s">
+      <c r="Q15" t="s">
         <v>337</v>
       </c>
-      <c r="S15">
+      <c r="R15">
         <v>0.5</v>
       </c>
-      <c r="T15" t="s">
+      <c r="S15" t="s">
         <v>346</v>
       </c>
-      <c r="AC15" s="9"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>405</v>
       </c>
@@ -11436,27 +11381,26 @@
       <c r="L16" t="s">
         <v>190</v>
       </c>
-      <c r="M16">
-        <v>211</v>
-      </c>
-      <c r="N16">
+      <c r="O16">
+        <v>211</v>
+      </c>
+      <c r="P16">
         <v>537727022</v>
       </c>
-      <c r="R16" t="s">
+      <c r="Q16" t="s">
         <v>337</v>
       </c>
-      <c r="S16">
+      <c r="R16">
         <v>0.5</v>
       </c>
+      <c r="S16" t="s">
+        <v>347</v>
+      </c>
       <c r="T16" t="s">
-        <v>347</v>
-      </c>
-      <c r="U16" t="s">
         <v>353</v>
       </c>
-      <c r="AC16" s="9"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>406</v>
       </c>
@@ -11484,27 +11428,26 @@
       <c r="L17" t="s">
         <v>190</v>
       </c>
-      <c r="M17">
-        <v>513</v>
-      </c>
-      <c r="N17">
+      <c r="O17">
+        <v>513</v>
+      </c>
+      <c r="P17">
         <v>658490210</v>
       </c>
-      <c r="R17" t="s">
+      <c r="Q17" t="s">
         <v>337</v>
       </c>
-      <c r="S17">
+      <c r="R17">
         <v>0.5</v>
       </c>
+      <c r="S17" t="s">
+        <v>387</v>
+      </c>
       <c r="T17" t="s">
-        <v>387</v>
-      </c>
-      <c r="U17" t="s">
         <v>354</v>
       </c>
-      <c r="AC17" s="9"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>407</v>
       </c>
@@ -11532,27 +11475,26 @@
       <c r="L18" t="s">
         <v>191</v>
       </c>
-      <c r="M18">
-        <v>513</v>
-      </c>
-      <c r="N18">
+      <c r="O18">
+        <v>513</v>
+      </c>
+      <c r="P18">
         <v>266506100</v>
       </c>
-      <c r="R18" t="s">
+      <c r="Q18" t="s">
         <v>338</v>
       </c>
-      <c r="S18">
+      <c r="R18">
         <v>1.5</v>
       </c>
+      <c r="S18" t="s">
+        <v>348</v>
+      </c>
       <c r="T18" t="s">
-        <v>348</v>
-      </c>
-      <c r="U18" t="s">
         <v>355</v>
       </c>
-      <c r="AC18" s="9"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>408</v>
       </c>
@@ -11580,27 +11522,26 @@
       <c r="L19" t="s">
         <v>191</v>
       </c>
-      <c r="M19">
-        <v>513</v>
-      </c>
-      <c r="N19">
+      <c r="O19">
+        <v>513</v>
+      </c>
+      <c r="P19">
         <v>718245555</v>
       </c>
-      <c r="R19" t="s">
+      <c r="Q19" t="s">
         <v>338</v>
       </c>
-      <c r="S19">
+      <c r="R19">
         <v>1</v>
       </c>
+      <c r="S19" t="s">
+        <v>349</v>
+      </c>
       <c r="T19" t="s">
-        <v>349</v>
-      </c>
-      <c r="U19" t="s">
         <v>356</v>
       </c>
-      <c r="AC19" s="9"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>409</v>
       </c>
@@ -11628,27 +11569,26 @@
       <c r="L20" t="s">
         <v>191</v>
       </c>
-      <c r="M20">
-        <v>211</v>
-      </c>
-      <c r="N20">
+      <c r="O20">
+        <v>211</v>
+      </c>
+      <c r="P20">
         <v>749820666</v>
       </c>
-      <c r="R20" t="s">
+      <c r="Q20" t="s">
         <v>338</v>
       </c>
-      <c r="S20">
+      <c r="R20">
         <v>1</v>
       </c>
+      <c r="S20" t="s">
+        <v>390</v>
+      </c>
       <c r="T20" t="s">
-        <v>390</v>
-      </c>
-      <c r="U20" t="s">
         <v>357</v>
       </c>
-      <c r="AC20" s="9"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>410</v>
       </c>
@@ -11676,27 +11616,26 @@
       <c r="L21" t="s">
         <v>342</v>
       </c>
-      <c r="M21">
-        <v>211</v>
-      </c>
-      <c r="N21">
+      <c r="O21">
+        <v>211</v>
+      </c>
+      <c r="P21">
         <v>302891595</v>
       </c>
-      <c r="R21" t="s">
+      <c r="Q21" t="s">
         <v>340</v>
       </c>
-      <c r="S21">
+      <c r="R21">
         <v>0.5</v>
       </c>
+      <c r="S21" t="s">
+        <v>350</v>
+      </c>
       <c r="T21" t="s">
-        <v>350</v>
-      </c>
-      <c r="U21" t="s">
         <v>358</v>
       </c>
-      <c r="AC21" s="9"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>411</v>
       </c>
@@ -11724,27 +11663,26 @@
       <c r="L22" t="s">
         <v>342</v>
       </c>
-      <c r="M22">
-        <v>211</v>
-      </c>
-      <c r="N22">
+      <c r="O22">
+        <v>211</v>
+      </c>
+      <c r="P22">
         <v>557968416</v>
       </c>
-      <c r="R22" t="s">
+      <c r="Q22" t="s">
         <v>340</v>
       </c>
-      <c r="S22">
+      <c r="R22">
         <v>0.5</v>
       </c>
+      <c r="S22" t="s">
+        <v>392</v>
+      </c>
       <c r="T22" t="s">
-        <v>392</v>
-      </c>
-      <c r="U22" t="s">
         <v>359</v>
       </c>
-      <c r="AC22" s="9"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>412</v>
       </c>
@@ -11772,27 +11710,26 @@
       <c r="L23" t="s">
         <v>192</v>
       </c>
-      <c r="M23">
-        <v>513</v>
-      </c>
-      <c r="N23">
+      <c r="O23">
+        <v>513</v>
+      </c>
+      <c r="P23">
         <v>365150430</v>
       </c>
-      <c r="R23" t="s">
+      <c r="Q23" t="s">
         <v>339</v>
       </c>
-      <c r="S23">
+      <c r="R23">
         <v>1</v>
       </c>
+      <c r="S23" t="s">
+        <v>351</v>
+      </c>
       <c r="T23" t="s">
-        <v>351</v>
-      </c>
-      <c r="U23" t="s">
         <v>360</v>
       </c>
-      <c r="AC23" s="9"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>413</v>
       </c>
@@ -11820,27 +11757,26 @@
       <c r="L24" t="s">
         <v>343</v>
       </c>
-      <c r="M24">
-        <v>513</v>
-      </c>
-      <c r="N24">
+      <c r="O24">
+        <v>513</v>
+      </c>
+      <c r="P24">
         <v>836795506</v>
       </c>
-      <c r="R24" t="s">
+      <c r="Q24" t="s">
         <v>341</v>
       </c>
-      <c r="S24">
+      <c r="R24">
         <v>1</v>
       </c>
+      <c r="S24" t="s">
+        <v>352</v>
+      </c>
       <c r="T24" t="s">
-        <v>352</v>
-      </c>
-      <c r="U24" t="s">
         <v>361</v>
       </c>
-      <c r="AC24" s="9"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>414</v>
       </c>
@@ -11868,24 +11804,23 @@
       <c r="L25" t="s">
         <v>343</v>
       </c>
-      <c r="M25">
-        <v>211</v>
-      </c>
-      <c r="N25">
+      <c r="O25">
+        <v>211</v>
+      </c>
+      <c r="P25">
         <v>532061376</v>
       </c>
-      <c r="R25" t="s">
+      <c r="Q25" t="s">
         <v>341</v>
       </c>
-      <c r="S25">
+      <c r="R25">
         <v>1</v>
       </c>
-      <c r="T25" t="s">
+      <c r="S25" t="s">
         <v>386</v>
       </c>
-      <c r="AC25" s="9"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>415</v>
       </c>
@@ -11913,27 +11848,26 @@
       <c r="L26" t="s">
         <v>344</v>
       </c>
-      <c r="M26">
-        <v>513</v>
-      </c>
-      <c r="N26">
+      <c r="O26">
+        <v>513</v>
+      </c>
+      <c r="P26">
         <v>789955841</v>
       </c>
-      <c r="R26" t="s">
+      <c r="Q26" t="s">
         <v>334</v>
       </c>
-      <c r="S26">
+      <c r="R26">
         <v>0.75</v>
       </c>
+      <c r="S26" t="s">
+        <v>373</v>
+      </c>
       <c r="T26" t="s">
-        <v>373</v>
-      </c>
-      <c r="U26" t="s">
         <v>374</v>
       </c>
-      <c r="AC26" s="9"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>416</v>
       </c>
@@ -11961,27 +11895,26 @@
       <c r="L27" t="s">
         <v>345</v>
       </c>
-      <c r="M27">
-        <v>513</v>
-      </c>
-      <c r="N27">
+      <c r="O27">
+        <v>513</v>
+      </c>
+      <c r="P27">
         <v>916471466</v>
       </c>
-      <c r="R27" t="s">
+      <c r="Q27" t="s">
         <v>337</v>
       </c>
-      <c r="S27">
+      <c r="R27">
         <v>0.5</v>
       </c>
+      <c r="S27" t="s">
+        <v>393</v>
+      </c>
       <c r="T27" t="s">
-        <v>393</v>
-      </c>
-      <c r="U27" t="s">
         <v>375</v>
       </c>
-      <c r="AC27" s="9"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>503</v>
       </c>
@@ -12006,15 +11939,14 @@
       <c r="P28">
         <v>438158179</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="U28" t="s">
         <v>402</v>
       </c>
-      <c r="AA28">
+      <c r="V28">
         <v>120</v>
       </c>
-      <c r="AC28" s="9"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>439</v>
       </c>
@@ -12039,15 +11971,14 @@
       <c r="P29">
         <v>227094313</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="U29" t="s">
         <v>402</v>
       </c>
-      <c r="AA29">
+      <c r="V29">
         <v>200</v>
       </c>
-      <c r="AC29" s="9"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>501</v>
       </c>
@@ -12072,15 +12003,14 @@
       <c r="P30">
         <v>248243311</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="U30" t="s">
         <v>402</v>
       </c>
-      <c r="AA30">
+      <c r="V30">
         <v>75</v>
       </c>
-      <c r="AC30" s="9"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>513</v>
       </c>
@@ -12105,15 +12035,14 @@
       <c r="P31">
         <v>789955841</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="U31" t="s">
         <v>402</v>
       </c>
-      <c r="AA31">
+      <c r="V31">
         <v>300</v>
       </c>
-      <c r="AC31" s="9"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>551</v>
       </c>
@@ -12138,15 +12067,14 @@
       <c r="P32">
         <v>132746240</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="U32" t="s">
         <v>402</v>
       </c>
-      <c r="AA32">
+      <c r="V32">
         <v>100</v>
       </c>
-      <c r="AC32" s="9"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>554</v>
       </c>
@@ -12171,15 +12099,14 @@
       <c r="P33">
         <v>628691073</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="U33" t="s">
         <v>402</v>
       </c>
-      <c r="AA33">
+      <c r="V33">
         <v>125</v>
       </c>
-      <c r="AC33" s="9"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>109</v>
       </c>
@@ -12201,24 +12128,14 @@
       <c r="O34" t="s">
         <v>4</v>
       </c>
-      <c r="V34" t="s">
-        <v>119</v>
-      </c>
-      <c r="W34" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y34">
-        <v>0.13</v>
-      </c>
-      <c r="Z34" t="s">
+      <c r="U34" t="s">
         <v>396</v>
       </c>
-      <c r="AA34">
+      <c r="V34">
         <v>0.08</v>
       </c>
-      <c r="AC34" s="9"/>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>457</v>
       </c>
@@ -12243,15 +12160,14 @@
       <c r="P35">
         <v>472561003</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="U35" t="s">
         <v>396</v>
       </c>
-      <c r="AA35">
+      <c r="V35">
         <v>175</v>
       </c>
-      <c r="AC35" s="9"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>510</v>
       </c>
@@ -12276,15 +12192,14 @@
       <c r="P36">
         <v>505079988</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="U36" t="s">
         <v>396</v>
       </c>
-      <c r="AA36">
+      <c r="V36">
         <v>200</v>
       </c>
-      <c r="AC36" s="9"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>570</v>
       </c>
@@ -12309,15 +12224,14 @@
       <c r="P37">
         <v>591219077</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="U37" t="s">
         <v>396</v>
       </c>
-      <c r="AA37">
+      <c r="V37">
         <v>150</v>
       </c>
-      <c r="AC37" s="9"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>108</v>
       </c>
@@ -12339,27 +12253,14 @@
       <c r="O38" t="s">
         <v>5</v>
       </c>
-      <c r="V38" t="s">
-        <v>118</v>
-      </c>
-      <c r="W38">
-        <v>50000</v>
-      </c>
-      <c r="X38">
-        <v>500000</v>
-      </c>
-      <c r="Y38">
-        <v>0.06</v>
-      </c>
-      <c r="Z38" t="s">
+      <c r="U38" t="s">
         <v>140</v>
       </c>
-      <c r="AA38">
+      <c r="V38">
         <v>0.09</v>
       </c>
-      <c r="AC38" s="9"/>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>113</v>
       </c>
@@ -12384,24 +12285,14 @@
       <c r="P39">
         <v>112337453</v>
       </c>
-      <c r="V39" t="s">
-        <v>120</v>
-      </c>
-      <c r="W39" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y39">
-        <v>0.11</v>
-      </c>
-      <c r="Z39" t="s">
+      <c r="U39" t="s">
         <v>394</v>
       </c>
-      <c r="AA39">
+      <c r="V39">
         <v>0.06</v>
       </c>
-      <c r="AC39" s="9"/>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>447</v>
       </c>
@@ -12426,15 +12317,14 @@
       <c r="P40">
         <v>355955848</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="U40" t="s">
         <v>394</v>
       </c>
-      <c r="AA40">
+      <c r="V40">
         <v>500</v>
       </c>
-      <c r="AC40" s="9"/>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>474</v>
       </c>
@@ -12459,15 +12349,14 @@
       <c r="P41">
         <v>135383517</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="U41" t="s">
         <v>394</v>
       </c>
-      <c r="AA41">
+      <c r="V41">
         <v>30000</v>
       </c>
-      <c r="AC41" s="9"/>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>476</v>
       </c>
@@ -12492,15 +12381,14 @@
       <c r="P42">
         <v>136069862</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="U42" t="s">
         <v>394</v>
       </c>
-      <c r="AA42">
+      <c r="V42">
         <v>250</v>
       </c>
-      <c r="AC42" s="9"/>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>481</v>
       </c>
@@ -12525,15 +12413,14 @@
       <c r="P43">
         <v>637896165</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="U43" t="s">
         <v>394</v>
       </c>
-      <c r="AA43">
+      <c r="V43">
         <v>12000</v>
       </c>
-      <c r="AC43" s="9"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>495</v>
       </c>
@@ -12558,15 +12445,14 @@
       <c r="P44">
         <v>494828429</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="U44" t="s">
         <v>394</v>
       </c>
-      <c r="AA44">
+      <c r="V44">
         <v>5000</v>
       </c>
-      <c r="AC44" s="9"/>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>509</v>
       </c>
@@ -12591,15 +12477,14 @@
       <c r="P45">
         <v>934072016</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="U45" t="s">
         <v>394</v>
       </c>
-      <c r="AA45">
+      <c r="V45">
         <v>750</v>
       </c>
-      <c r="AC45" s="9"/>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>571</v>
       </c>
@@ -12624,15 +12509,14 @@
       <c r="P46">
         <v>452165939</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="U46" t="s">
         <v>394</v>
       </c>
-      <c r="AA46">
+      <c r="V46">
         <v>5000</v>
       </c>
-      <c r="AC46" s="9"/>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>576</v>
       </c>
@@ -12657,15 +12541,14 @@
       <c r="P47">
         <v>405607913</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="U47" t="s">
         <v>394</v>
       </c>
-      <c r="AA47">
+      <c r="V47">
         <v>1000</v>
       </c>
-      <c r="AC47" s="9"/>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>453</v>
       </c>
@@ -12690,15 +12573,14 @@
       <c r="P48">
         <v>885049365</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="U48" t="s">
         <v>398</v>
       </c>
-      <c r="AA48">
+      <c r="V48">
         <v>300</v>
       </c>
-      <c r="AC48" s="9"/>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>536</v>
       </c>
@@ -12723,15 +12605,14 @@
       <c r="P49">
         <v>248005545</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="U49" t="s">
         <v>398</v>
       </c>
-      <c r="AA49">
+      <c r="V49">
         <v>400</v>
       </c>
-      <c r="AC49" s="9"/>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>575</v>
       </c>
@@ -12750,15 +12631,14 @@
       <c r="L50" t="s">
         <v>596</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="U50" t="s">
         <v>398</v>
       </c>
-      <c r="AA50">
+      <c r="V50">
         <v>500</v>
       </c>
-      <c r="AC50" s="9"/>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>479</v>
       </c>
@@ -12783,15 +12663,14 @@
       <c r="P51">
         <v>516667443</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="U51" t="s">
         <v>400</v>
       </c>
-      <c r="AA51">
+      <c r="V51">
         <v>2000</v>
       </c>
-      <c r="AC51" s="9"/>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>512</v>
       </c>
@@ -12816,15 +12695,14 @@
       <c r="P52">
         <v>267051587</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="U52" t="s">
         <v>400</v>
       </c>
-      <c r="AA52">
+      <c r="V52">
         <v>2500</v>
       </c>
-      <c r="AC52" s="9"/>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>538</v>
       </c>
@@ -12849,15 +12727,14 @@
       <c r="P53">
         <v>667224022</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="U53" t="s">
         <v>400</v>
       </c>
-      <c r="AA53">
+      <c r="V53">
         <v>500</v>
       </c>
-      <c r="AC53" s="9"/>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>541</v>
       </c>
@@ -12882,15 +12759,14 @@
       <c r="P54">
         <v>266781357</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="U54" t="s">
         <v>400</v>
       </c>
-      <c r="AA54">
+      <c r="V54">
         <v>166.666666666667</v>
       </c>
-      <c r="AC54" s="9"/>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>568</v>
       </c>
@@ -12915,15 +12791,14 @@
       <c r="P55">
         <v>275415484</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="U55" t="s">
         <v>400</v>
       </c>
-      <c r="AA55">
+      <c r="V55">
         <v>800</v>
       </c>
-      <c r="AC55" s="9"/>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>577</v>
       </c>
@@ -12948,15 +12823,14 @@
       <c r="P56">
         <v>413523534</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="U56" t="s">
         <v>400</v>
       </c>
-      <c r="AA56">
+      <c r="V56">
         <v>3000</v>
       </c>
-      <c r="AC56" s="9"/>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>547</v>
       </c>
@@ -12981,15 +12855,14 @@
       <c r="P57">
         <v>986802350</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="U57" t="s">
         <v>398</v>
       </c>
-      <c r="AA57">
+      <c r="V57">
         <v>2000</v>
       </c>
-      <c r="AC57" s="9"/>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>548</v>
       </c>
@@ -13014,15 +12887,14 @@
       <c r="P58">
         <v>373837396</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="U58" t="s">
         <v>398</v>
       </c>
-      <c r="AA58">
+      <c r="V58">
         <v>1500</v>
       </c>
-      <c r="AC58" s="9"/>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>552</v>
       </c>
@@ -13047,15 +12919,14 @@
       <c r="P59">
         <v>461861375</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="U59" t="s">
         <v>398</v>
       </c>
-      <c r="AA59">
+      <c r="V59">
         <v>3000</v>
       </c>
-      <c r="AC59" s="9"/>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>504</v>
       </c>
@@ -13080,15 +12951,14 @@
       <c r="P60">
         <v>516733726</v>
       </c>
-      <c r="Z60" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA60">
+      <c r="U60" t="s">
+        <v>395</v>
+      </c>
+      <c r="V60">
         <v>10</v>
       </c>
-      <c r="AC60" s="9"/>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>553</v>
       </c>
@@ -13113,15 +12983,14 @@
       <c r="P61">
         <v>628840785</v>
       </c>
-      <c r="Z61" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA61">
+      <c r="U61" t="s">
+        <v>395</v>
+      </c>
+      <c r="V61">
         <v>10</v>
       </c>
-      <c r="AC61" s="9"/>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>555</v>
       </c>
@@ -13146,15 +13015,14 @@
       <c r="P62">
         <v>217084038</v>
       </c>
-      <c r="Z62" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA62">
+      <c r="U62" t="s">
+        <v>395</v>
+      </c>
+      <c r="V62">
         <v>15</v>
       </c>
-      <c r="AC62" s="9"/>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>556</v>
       </c>
@@ -13179,15 +13047,14 @@
       <c r="P63">
         <v>253784279</v>
       </c>
-      <c r="Z63" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA63">
+      <c r="U63" t="s">
+        <v>395</v>
+      </c>
+      <c r="V63">
         <v>10</v>
       </c>
-      <c r="AC63" s="9"/>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>557</v>
       </c>
@@ -13212,15 +13079,14 @@
       <c r="P64">
         <v>624155756</v>
       </c>
-      <c r="Z64" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA64">
+      <c r="U64" t="s">
+        <v>395</v>
+      </c>
+      <c r="V64">
         <v>12</v>
       </c>
-      <c r="AC64" s="9"/>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>558</v>
       </c>
@@ -13245,15 +13111,14 @@
       <c r="P65">
         <v>640290550</v>
       </c>
-      <c r="Z65" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA65">
+      <c r="U65" t="s">
+        <v>395</v>
+      </c>
+      <c r="V65">
         <v>13</v>
       </c>
-      <c r="AC65" s="9"/>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>561</v>
       </c>
@@ -13278,15 +13143,14 @@
       <c r="P66">
         <v>876627229</v>
       </c>
-      <c r="Z66" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA66">
+      <c r="U66" t="s">
+        <v>395</v>
+      </c>
+      <c r="V66">
         <v>15</v>
       </c>
-      <c r="AC66" s="9"/>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>562</v>
       </c>
@@ -13311,15 +13175,14 @@
       <c r="P67">
         <v>868341010</v>
       </c>
-      <c r="Z67" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA67">
+      <c r="U67" t="s">
+        <v>395</v>
+      </c>
+      <c r="V67">
         <v>40</v>
       </c>
-      <c r="AC67" s="9"/>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>563</v>
       </c>
@@ -13344,15 +13207,14 @@
       <c r="P68">
         <v>390177230</v>
       </c>
-      <c r="Z68" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA68">
+      <c r="U68" t="s">
+        <v>395</v>
+      </c>
+      <c r="V68">
         <v>20</v>
       </c>
-      <c r="AC68" s="9"/>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>564</v>
       </c>
@@ -13377,15 +13239,14 @@
       <c r="P69">
         <v>704060661</v>
       </c>
-      <c r="Z69" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA69">
+      <c r="U69" t="s">
+        <v>395</v>
+      </c>
+      <c r="V69">
         <v>30</v>
       </c>
-      <c r="AC69" s="9"/>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>565</v>
       </c>
@@ -13410,15 +13271,14 @@
       <c r="P70">
         <v>465459033</v>
       </c>
-      <c r="Z70" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA70">
+      <c r="U70" t="s">
+        <v>395</v>
+      </c>
+      <c r="V70">
         <v>25</v>
       </c>
-      <c r="AC70" s="9"/>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>566</v>
       </c>
@@ -13443,15 +13303,14 @@
       <c r="P71">
         <v>823272855</v>
       </c>
-      <c r="Z71" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA71">
+      <c r="U71" t="s">
+        <v>395</v>
+      </c>
+      <c r="V71">
         <v>15</v>
       </c>
-      <c r="AC71" s="9"/>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>567</v>
       </c>
@@ -13476,15 +13335,14 @@
       <c r="P72">
         <v>525556835</v>
       </c>
-      <c r="Z72" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA72">
+      <c r="U72" t="s">
+        <v>395</v>
+      </c>
+      <c r="V72">
         <v>30</v>
       </c>
-      <c r="AC72" s="9"/>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>421</v>
       </c>
@@ -13509,24 +13367,14 @@
       <c r="P73">
         <v>895293939</v>
       </c>
-      <c r="V73" t="s">
-        <v>121</v>
-      </c>
-      <c r="W73" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y73">
-        <v>0.08</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA73">
+      <c r="U73" t="s">
+        <v>395</v>
+      </c>
+      <c r="V73">
         <v>1200</v>
       </c>
-      <c r="AC73" s="9"/>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>455</v>
       </c>
@@ -13551,15 +13399,14 @@
       <c r="P74">
         <v>936702836</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="U74" t="s">
         <v>399</v>
       </c>
-      <c r="AA74">
+      <c r="V74">
         <v>800</v>
       </c>
-      <c r="AC74" s="9"/>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>458</v>
       </c>
@@ -13584,15 +13431,14 @@
       <c r="P75">
         <v>990432185</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="U75" t="s">
         <v>399</v>
       </c>
-      <c r="AA75">
+      <c r="V75">
         <v>500</v>
       </c>
-      <c r="AC75" s="9"/>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>470</v>
       </c>
@@ -13617,15 +13463,14 @@
       <c r="P76">
         <v>498790414</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="U76" t="s">
         <v>399</v>
       </c>
-      <c r="AA76">
+      <c r="V76">
         <v>4500</v>
       </c>
-      <c r="AC76" s="9"/>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>526</v>
       </c>
@@ -13650,15 +13495,14 @@
       <c r="P77">
         <v>453897225</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="U77" t="s">
         <v>399</v>
       </c>
-      <c r="AA77">
+      <c r="V77">
         <v>600</v>
       </c>
-      <c r="AC77" s="9"/>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>549</v>
       </c>
@@ -13683,15 +13527,14 @@
       <c r="P78">
         <v>352787726</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="U78" t="s">
         <v>399</v>
       </c>
-      <c r="AA78">
+      <c r="V78">
         <v>300</v>
       </c>
-      <c r="AC78" s="9"/>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>460</v>
       </c>
@@ -13716,24 +13559,14 @@
       <c r="P79">
         <v>522540999</v>
       </c>
-      <c r="V79" t="s">
-        <v>126</v>
-      </c>
-      <c r="W79" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y79">
-        <v>0</v>
-      </c>
-      <c r="Z79" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA79">
+      <c r="U79" t="s">
+        <v>395</v>
+      </c>
+      <c r="V79">
         <v>250</v>
       </c>
-      <c r="AC79" s="9"/>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>427</v>
       </c>
@@ -13758,15 +13591,14 @@
       <c r="P80">
         <v>127268098</v>
       </c>
-      <c r="Z80" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA80">
+      <c r="U80" t="s">
+        <v>395</v>
+      </c>
+      <c r="V80">
         <v>75</v>
       </c>
-      <c r="AC80" s="9"/>
-    </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>428</v>
       </c>
@@ -13791,15 +13623,14 @@
       <c r="P81">
         <v>212980862</v>
       </c>
-      <c r="Z81" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA81">
+      <c r="U81" t="s">
+        <v>395</v>
+      </c>
+      <c r="V81">
         <v>125</v>
       </c>
-      <c r="AC81" s="9"/>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>429</v>
       </c>
@@ -13824,15 +13655,14 @@
       <c r="P82">
         <v>648699736</v>
       </c>
-      <c r="Z82" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA82">
+      <c r="U82" t="s">
+        <v>395</v>
+      </c>
+      <c r="V82">
         <v>300</v>
       </c>
-      <c r="AC82" s="9"/>
-    </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>430</v>
       </c>
@@ -13857,15 +13687,14 @@
       <c r="P83">
         <v>960729002</v>
       </c>
-      <c r="Z83" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA83">
+      <c r="U83" t="s">
+        <v>395</v>
+      </c>
+      <c r="V83">
         <v>125</v>
       </c>
-      <c r="AC83" s="9"/>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>442</v>
       </c>
@@ -13890,24 +13719,14 @@
       <c r="P84">
         <v>676643502</v>
       </c>
-      <c r="V84" t="s">
-        <v>125</v>
-      </c>
-      <c r="W84" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y84">
-        <v>0.19</v>
-      </c>
-      <c r="Z84" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA84">
+      <c r="U84" t="s">
+        <v>395</v>
+      </c>
+      <c r="V84">
         <v>60</v>
       </c>
-      <c r="AC84" s="9"/>
-    </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>482</v>
       </c>
@@ -13932,15 +13751,14 @@
       <c r="P85">
         <v>334511349</v>
       </c>
-      <c r="Z85" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA85">
+      <c r="U85" t="s">
+        <v>395</v>
+      </c>
+      <c r="V85">
         <v>30</v>
       </c>
-      <c r="AC85" s="9"/>
-    </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>483</v>
       </c>
@@ -13965,15 +13783,14 @@
       <c r="P86">
         <v>963691752</v>
       </c>
-      <c r="Z86" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA86">
+      <c r="U86" t="s">
+        <v>395</v>
+      </c>
+      <c r="V86">
         <v>15</v>
       </c>
-      <c r="AC86" s="9"/>
-    </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>484</v>
       </c>
@@ -13998,15 +13815,14 @@
       <c r="P87">
         <v>435341939</v>
       </c>
-      <c r="Z87" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA87">
+      <c r="U87" t="s">
+        <v>395</v>
+      </c>
+      <c r="V87">
         <v>30</v>
       </c>
-      <c r="AC87" s="9"/>
-    </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>516</v>
       </c>
@@ -14031,15 +13847,14 @@
       <c r="P88">
         <v>484003227</v>
       </c>
-      <c r="Z88" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA88">
+      <c r="U88" t="s">
+        <v>395</v>
+      </c>
+      <c r="V88">
         <v>300</v>
       </c>
-      <c r="AC88" s="9"/>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>518</v>
       </c>
@@ -14064,15 +13879,14 @@
       <c r="P89">
         <v>483779832</v>
       </c>
-      <c r="Z89" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA89">
+      <c r="U89" t="s">
+        <v>395</v>
+      </c>
+      <c r="V89">
         <v>400</v>
       </c>
-      <c r="AC89" s="9"/>
-    </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>519</v>
       </c>
@@ -14097,15 +13911,14 @@
       <c r="P90">
         <v>983769462</v>
       </c>
-      <c r="Z90" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA90">
+      <c r="U90" t="s">
+        <v>395</v>
+      </c>
+      <c r="V90">
         <v>200</v>
       </c>
-      <c r="AC90" s="9"/>
-    </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>520</v>
       </c>
@@ -14130,15 +13943,14 @@
       <c r="P91">
         <v>965449072</v>
       </c>
-      <c r="Z91" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA91">
+      <c r="U91" t="s">
+        <v>395</v>
+      </c>
+      <c r="V91">
         <v>45</v>
       </c>
-      <c r="AC91" s="9"/>
-    </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>521</v>
       </c>
@@ -14163,15 +13975,14 @@
       <c r="P92">
         <v>841591542</v>
       </c>
-      <c r="Z92" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA92">
+      <c r="U92" t="s">
+        <v>395</v>
+      </c>
+      <c r="V92">
         <v>65</v>
       </c>
-      <c r="AC92" s="9"/>
-    </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>523</v>
       </c>
@@ -14196,15 +14007,14 @@
       <c r="P93">
         <v>906795749</v>
       </c>
-      <c r="Z93" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA93">
+      <c r="U93" t="s">
+        <v>395</v>
+      </c>
+      <c r="V93">
         <v>80</v>
       </c>
-      <c r="AC93" s="9"/>
-    </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>524</v>
       </c>
@@ -14229,15 +14039,14 @@
       <c r="P94">
         <v>898431335</v>
       </c>
-      <c r="Z94" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA94">
+      <c r="U94" t="s">
+        <v>395</v>
+      </c>
+      <c r="V94">
         <v>15</v>
       </c>
-      <c r="AC94" s="9"/>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>525</v>
       </c>
@@ -14262,15 +14071,14 @@
       <c r="P95">
         <v>474191357</v>
       </c>
-      <c r="Z95" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA95">
+      <c r="U95" t="s">
+        <v>395</v>
+      </c>
+      <c r="V95">
         <v>125</v>
       </c>
-      <c r="AC95" s="9"/>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>527</v>
       </c>
@@ -14295,15 +14103,14 @@
       <c r="P96">
         <v>325752945</v>
       </c>
-      <c r="Z96" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA96">
+      <c r="U96" t="s">
+        <v>395</v>
+      </c>
+      <c r="V96">
         <v>250</v>
       </c>
-      <c r="AC96" s="9"/>
-    </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>528</v>
       </c>
@@ -14328,15 +14135,14 @@
       <c r="P97">
         <v>706908898</v>
       </c>
-      <c r="Z97" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA97">
+      <c r="U97" t="s">
+        <v>395</v>
+      </c>
+      <c r="V97">
         <v>300</v>
       </c>
-      <c r="AC97" s="9"/>
-    </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -14361,15 +14167,14 @@
       <c r="P98">
         <v>733486387</v>
       </c>
-      <c r="Z98" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA98">
+      <c r="U98" t="s">
+        <v>395</v>
+      </c>
+      <c r="V98">
         <v>30</v>
       </c>
-      <c r="AC98" s="9"/>
-    </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>114</v>
       </c>
@@ -14394,15 +14199,14 @@
       <c r="P99">
         <v>122589443</v>
       </c>
-      <c r="Z99" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA99">
+      <c r="U99" t="s">
+        <v>395</v>
+      </c>
+      <c r="V99">
         <v>30</v>
       </c>
-      <c r="AC99" s="9"/>
-    </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>450</v>
       </c>
@@ -14427,15 +14231,14 @@
       <c r="P100">
         <v>404857196</v>
       </c>
-      <c r="Z100" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA100">
+      <c r="U100" t="s">
+        <v>395</v>
+      </c>
+      <c r="V100">
         <v>30</v>
       </c>
-      <c r="AC100" s="9"/>
-    </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>451</v>
       </c>
@@ -14460,15 +14263,14 @@
       <c r="P101">
         <v>658490210</v>
       </c>
-      <c r="Z101" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA101">
+      <c r="U101" t="s">
+        <v>395</v>
+      </c>
+      <c r="V101">
         <v>30</v>
       </c>
-      <c r="AC101" s="9"/>
-    </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>461</v>
       </c>
@@ -14493,24 +14295,14 @@
       <c r="P102">
         <v>143285374</v>
       </c>
-      <c r="V102" t="s">
-        <v>127</v>
-      </c>
-      <c r="W102" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y102">
-        <v>0.04</v>
-      </c>
-      <c r="Z102" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA102">
+      <c r="U102" t="s">
+        <v>395</v>
+      </c>
+      <c r="V102">
         <v>40</v>
       </c>
-      <c r="AC102" s="9"/>
-    </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>463</v>
       </c>
@@ -14535,15 +14327,14 @@
       <c r="P103">
         <v>537727022</v>
       </c>
-      <c r="Z103" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA103">
+      <c r="U103" t="s">
+        <v>395</v>
+      </c>
+      <c r="V103">
         <v>30</v>
       </c>
-      <c r="AC103" s="9"/>
-    </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>464</v>
       </c>
@@ -14568,15 +14359,14 @@
       <c r="P104">
         <v>222650933</v>
       </c>
-      <c r="Z104" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA104">
+      <c r="U104" t="s">
+        <v>395</v>
+      </c>
+      <c r="V104">
         <v>30</v>
       </c>
-      <c r="AC104" s="9"/>
-    </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>465</v>
       </c>
@@ -14601,15 +14391,14 @@
       <c r="P105">
         <v>671070250</v>
       </c>
-      <c r="Z105" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA105">
+      <c r="U105" t="s">
+        <v>395</v>
+      </c>
+      <c r="V105">
         <v>30</v>
       </c>
-      <c r="AC105" s="9"/>
-    </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>496</v>
       </c>
@@ -14634,15 +14423,14 @@
       <c r="P106">
         <v>648221125</v>
       </c>
-      <c r="Z106" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA106">
+      <c r="U106" t="s">
+        <v>395</v>
+      </c>
+      <c r="V106">
         <v>30</v>
       </c>
-      <c r="AC106" s="9"/>
-    </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>497</v>
       </c>
@@ -14667,15 +14455,14 @@
       <c r="P107">
         <v>863799002</v>
       </c>
-      <c r="Z107" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA107">
+      <c r="U107" t="s">
+        <v>395</v>
+      </c>
+      <c r="V107">
         <v>30</v>
       </c>
-      <c r="AC107" s="9"/>
-    </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>498</v>
       </c>
@@ -14700,15 +14487,14 @@
       <c r="P108">
         <v>464694173</v>
       </c>
-      <c r="Z108" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA108">
+      <c r="U108" t="s">
+        <v>395</v>
+      </c>
+      <c r="V108">
         <v>30</v>
       </c>
-      <c r="AC108" s="9"/>
-    </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>499</v>
       </c>
@@ -14733,15 +14519,14 @@
       <c r="P109">
         <v>787996036</v>
       </c>
-      <c r="Z109" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA109">
+      <c r="U109" t="s">
+        <v>395</v>
+      </c>
+      <c r="V109">
         <v>30</v>
       </c>
-      <c r="AC109" s="9"/>
-    </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>500</v>
       </c>
@@ -14766,15 +14551,14 @@
       <c r="P110">
         <v>367583833</v>
       </c>
-      <c r="Z110" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA110">
+      <c r="U110" t="s">
+        <v>395</v>
+      </c>
+      <c r="V110">
         <v>30</v>
       </c>
-      <c r="AC110" s="9"/>
-    </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>530</v>
       </c>
@@ -14799,15 +14583,14 @@
       <c r="P111">
         <v>270042360</v>
       </c>
-      <c r="Z111" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA111">
+      <c r="U111" t="s">
+        <v>395</v>
+      </c>
+      <c r="V111">
         <v>30</v>
       </c>
-      <c r="AC111" s="9"/>
-    </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>532</v>
       </c>
@@ -14832,15 +14615,14 @@
       <c r="P112">
         <v>433126479</v>
       </c>
-      <c r="Z112" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA112">
+      <c r="U112" t="s">
+        <v>395</v>
+      </c>
+      <c r="V112">
         <v>30</v>
       </c>
-      <c r="AC112" s="9"/>
-    </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>533</v>
       </c>
@@ -14865,15 +14647,14 @@
       <c r="P113">
         <v>762984358</v>
       </c>
-      <c r="Z113" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA113">
+      <c r="U113" t="s">
+        <v>395</v>
+      </c>
+      <c r="V113">
         <v>30</v>
       </c>
-      <c r="AC113" s="9"/>
-    </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>534</v>
       </c>
@@ -14898,15 +14679,14 @@
       <c r="P114">
         <v>775955847</v>
       </c>
-      <c r="Z114" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA114">
+      <c r="U114" t="s">
+        <v>395</v>
+      </c>
+      <c r="V114">
         <v>30</v>
       </c>
-      <c r="AC114" s="9"/>
-    </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -14931,15 +14711,14 @@
       <c r="P115">
         <v>682179549</v>
       </c>
-      <c r="Z115" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA115">
+      <c r="U115" t="s">
+        <v>395</v>
+      </c>
+      <c r="V115">
         <v>1250</v>
       </c>
-      <c r="AC115" s="9"/>
-    </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -14964,15 +14743,14 @@
       <c r="P116">
         <v>342480488</v>
       </c>
-      <c r="Z116" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA116">
+      <c r="U116" t="s">
+        <v>395</v>
+      </c>
+      <c r="V116">
         <v>3500</v>
       </c>
-      <c r="AC116" s="9"/>
-    </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -14997,15 +14775,14 @@
       <c r="P117">
         <v>505282079</v>
       </c>
-      <c r="Z117" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA117">
+      <c r="U117" t="s">
+        <v>395</v>
+      </c>
+      <c r="V117">
         <v>1200</v>
       </c>
-      <c r="AC117" s="9"/>
-    </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>432</v>
       </c>
@@ -15030,24 +14807,14 @@
       <c r="P118">
         <v>324893843</v>
       </c>
-      <c r="V118" t="s">
-        <v>124</v>
-      </c>
-      <c r="W118" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y118">
-        <v>0.19</v>
-      </c>
-      <c r="Z118" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA118">
+      <c r="U118" t="s">
+        <v>395</v>
+      </c>
+      <c r="V118">
         <v>1100</v>
       </c>
-      <c r="AC118" s="9"/>
-    </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>434</v>
       </c>
@@ -15072,15 +14839,14 @@
       <c r="P119">
         <v>756543952</v>
       </c>
-      <c r="Z119" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA119">
+      <c r="U119" t="s">
+        <v>395</v>
+      </c>
+      <c r="V119">
         <v>1200</v>
       </c>
-      <c r="AC119" s="9"/>
-    </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>435</v>
       </c>
@@ -15105,15 +14871,14 @@
       <c r="P120">
         <v>471742780</v>
       </c>
-      <c r="Z120" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA120">
+      <c r="U120" t="s">
+        <v>395</v>
+      </c>
+      <c r="V120">
         <v>450</v>
       </c>
-      <c r="AC120" s="9"/>
-    </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>436</v>
       </c>
@@ -15138,15 +14903,14 @@
       <c r="P121">
         <v>695168316</v>
       </c>
-      <c r="Z121" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA121">
+      <c r="U121" t="s">
+        <v>395</v>
+      </c>
+      <c r="V121">
         <v>6000</v>
       </c>
-      <c r="AC121" s="9"/>
-    </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>437</v>
       </c>
@@ -15171,15 +14935,14 @@
       <c r="P122">
         <v>430073723</v>
       </c>
-      <c r="Z122" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA122">
+      <c r="U122" t="s">
+        <v>395</v>
+      </c>
+      <c r="V122">
         <v>6000</v>
       </c>
-      <c r="AC122" s="9"/>
-    </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>438</v>
       </c>
@@ -15204,15 +14967,14 @@
       <c r="P123">
         <v>549282277</v>
       </c>
-      <c r="Z123" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA123">
+      <c r="U123" t="s">
+        <v>395</v>
+      </c>
+      <c r="V123">
         <v>7000</v>
       </c>
-      <c r="AC123" s="9"/>
-    </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>494</v>
       </c>
@@ -15237,15 +14999,14 @@
       <c r="P124">
         <v>517673255</v>
       </c>
-      <c r="Z124" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA124">
+      <c r="U124" t="s">
+        <v>395</v>
+      </c>
+      <c r="V124">
         <v>3000</v>
       </c>
-      <c r="AC124" s="9"/>
-    </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>111</v>
       </c>
@@ -15270,15 +15031,14 @@
       <c r="P125">
         <v>838184936</v>
       </c>
-      <c r="Z125" t="s">
+      <c r="U125" t="s">
         <v>399</v>
       </c>
-      <c r="AA125">
+      <c r="V125">
         <v>45000</v>
       </c>
-      <c r="AC125" s="9"/>
-    </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>417</v>
       </c>
@@ -15303,15 +15063,14 @@
       <c r="P126">
         <v>608940143</v>
       </c>
-      <c r="Z126" t="s">
+      <c r="U126" t="s">
         <v>399</v>
       </c>
-      <c r="AA126">
+      <c r="V126">
         <v>32000</v>
       </c>
-      <c r="AC126" s="9"/>
-    </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>433</v>
       </c>
@@ -15336,15 +15095,14 @@
       <c r="P127">
         <v>909423007</v>
       </c>
-      <c r="Z127" t="s">
+      <c r="U127" t="s">
         <v>399</v>
       </c>
-      <c r="AA127">
+      <c r="V127">
         <v>30000</v>
       </c>
-      <c r="AC127" s="9"/>
-    </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>456</v>
       </c>
@@ -15369,15 +15127,14 @@
       <c r="P128">
         <v>151207901</v>
       </c>
-      <c r="Z128" t="s">
+      <c r="U128" t="s">
         <v>399</v>
       </c>
-      <c r="AA128">
+      <c r="V128">
         <v>4500</v>
       </c>
-      <c r="AC128" s="9"/>
-    </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>467</v>
       </c>
@@ -15402,15 +15159,14 @@
       <c r="P129">
         <v>365150430</v>
       </c>
-      <c r="Z129" t="s">
+      <c r="U129" t="s">
         <v>399</v>
       </c>
-      <c r="AA129">
+      <c r="V129">
         <v>2500</v>
       </c>
-      <c r="AC129" s="9"/>
-    </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>514</v>
       </c>
@@ -15435,15 +15191,14 @@
       <c r="P130">
         <v>722608660</v>
       </c>
-      <c r="Z130" t="s">
+      <c r="U130" t="s">
         <v>399</v>
       </c>
-      <c r="AA130">
+      <c r="V130">
         <v>30000</v>
       </c>
-      <c r="AC130" s="9"/>
-    </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>531</v>
       </c>
@@ -15468,15 +15223,14 @@
       <c r="P131">
         <v>850723373</v>
       </c>
-      <c r="Z131" t="s">
+      <c r="U131" t="s">
         <v>399</v>
       </c>
-      <c r="AA131">
+      <c r="V131">
         <v>12000</v>
       </c>
-      <c r="AC131" s="9"/>
-    </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>535</v>
       </c>
@@ -15501,15 +15255,14 @@
       <c r="P132">
         <v>768951947</v>
       </c>
-      <c r="Z132" t="s">
+      <c r="U132" t="s">
         <v>399</v>
       </c>
-      <c r="AA132">
+      <c r="V132">
         <v>15000</v>
       </c>
-      <c r="AC132" s="9"/>
-    </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>545</v>
       </c>
@@ -15534,15 +15287,14 @@
       <c r="P133">
         <v>991072639</v>
       </c>
-      <c r="Z133" t="s">
+      <c r="U133" t="s">
         <v>399</v>
       </c>
-      <c r="AA133">
+      <c r="V133">
         <v>350</v>
       </c>
-      <c r="AC133" s="9"/>
-    </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>574</v>
       </c>
@@ -15567,15 +15319,14 @@
       <c r="P134">
         <v>807515573</v>
       </c>
-      <c r="Z134" t="s">
+      <c r="U134" t="s">
         <v>399</v>
       </c>
-      <c r="AA134">
+      <c r="V134">
         <v>10000</v>
       </c>
-      <c r="AC134" s="9"/>
-    </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>452</v>
       </c>
@@ -15600,15 +15351,14 @@
       <c r="P135">
         <v>383386406</v>
       </c>
-      <c r="Z135" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA135">
+      <c r="U135" t="s">
+        <v>395</v>
+      </c>
+      <c r="V135">
         <v>150</v>
       </c>
-      <c r="AC135" s="9"/>
-    </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>459</v>
       </c>
@@ -15633,15 +15383,14 @@
       <c r="P136">
         <v>421201472</v>
       </c>
-      <c r="Z136" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA136">
+      <c r="U136" t="s">
+        <v>395</v>
+      </c>
+      <c r="V136">
         <v>75</v>
       </c>
-      <c r="AC136" s="9"/>
-    </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>462</v>
       </c>
@@ -15666,15 +15415,14 @@
       <c r="P137">
         <v>182873847</v>
       </c>
-      <c r="Z137" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA137">
+      <c r="U137" t="s">
+        <v>395</v>
+      </c>
+      <c r="V137">
         <v>75</v>
       </c>
-      <c r="AC137" s="9"/>
-    </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>468</v>
       </c>
@@ -15699,15 +15447,14 @@
       <c r="P138">
         <v>420815220</v>
       </c>
-      <c r="Z138" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA138">
+      <c r="U138" t="s">
+        <v>395</v>
+      </c>
+      <c r="V138">
         <v>25</v>
       </c>
-      <c r="AC138" s="9"/>
-    </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>469</v>
       </c>
@@ -15732,15 +15479,14 @@
       <c r="P139">
         <v>536976287</v>
       </c>
-      <c r="Z139" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA139">
+      <c r="U139" t="s">
+        <v>395</v>
+      </c>
+      <c r="V139">
         <v>25</v>
       </c>
-      <c r="AC139" s="9"/>
-    </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>475</v>
       </c>
@@ -15765,15 +15511,14 @@
       <c r="P140">
         <v>821699299</v>
       </c>
-      <c r="Z140" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA140">
+      <c r="U140" t="s">
+        <v>395</v>
+      </c>
+      <c r="V140">
         <v>30</v>
       </c>
-      <c r="AC140" s="9"/>
-    </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>480</v>
       </c>
@@ -15798,15 +15543,14 @@
       <c r="P141">
         <v>184832081</v>
       </c>
-      <c r="Z141" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA141">
+      <c r="U141" t="s">
+        <v>395</v>
+      </c>
+      <c r="V141">
         <v>75</v>
       </c>
-      <c r="AC141" s="9"/>
-    </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>489</v>
       </c>
@@ -15831,15 +15575,14 @@
       <c r="P142">
         <v>535376999</v>
       </c>
-      <c r="Z142" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA142">
+      <c r="U142" t="s">
+        <v>395</v>
+      </c>
+      <c r="V142">
         <v>25</v>
       </c>
-      <c r="AC142" s="9"/>
-    </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>490</v>
       </c>
@@ -15864,15 +15607,14 @@
       <c r="P143">
         <v>916471466</v>
       </c>
-      <c r="Z143" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA143">
+      <c r="U143" t="s">
+        <v>395</v>
+      </c>
+      <c r="V143">
         <v>25</v>
       </c>
-      <c r="AC143" s="9"/>
-    </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>491</v>
       </c>
@@ -15897,15 +15639,14 @@
       <c r="P144">
         <v>737092860</v>
       </c>
-      <c r="Z144" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA144">
+      <c r="U144" t="s">
+        <v>395</v>
+      </c>
+      <c r="V144">
         <v>25</v>
       </c>
-      <c r="AC144" s="9"/>
-    </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>492</v>
       </c>
@@ -15930,15 +15671,14 @@
       <c r="P145">
         <v>494091239</v>
       </c>
-      <c r="Z145" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA145">
+      <c r="U145" t="s">
+        <v>395</v>
+      </c>
+      <c r="V145">
         <v>25</v>
       </c>
-      <c r="AC145" s="9"/>
-    </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>515</v>
       </c>
@@ -15963,15 +15703,14 @@
       <c r="P146">
         <v>484866295</v>
       </c>
-      <c r="Z146" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA146">
+      <c r="U146" t="s">
+        <v>395</v>
+      </c>
+      <c r="V146">
         <v>125</v>
       </c>
-      <c r="AC146" s="9"/>
-    </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>560</v>
       </c>
@@ -15996,15 +15735,14 @@
       <c r="P147">
         <v>165846143</v>
       </c>
-      <c r="Z147" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA147">
+      <c r="U147" t="s">
+        <v>395</v>
+      </c>
+      <c r="V147">
         <v>60</v>
       </c>
-      <c r="AC147" s="9"/>
-    </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>572</v>
       </c>
@@ -16029,15 +15767,14 @@
       <c r="P148">
         <v>689351059</v>
       </c>
-      <c r="Z148" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA148">
+      <c r="U148" t="s">
+        <v>395</v>
+      </c>
+      <c r="V148">
         <v>30</v>
       </c>
-      <c r="AC148" s="9"/>
-    </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>573</v>
       </c>
@@ -16062,15 +15799,14 @@
       <c r="P149">
         <v>411827827</v>
       </c>
-      <c r="Z149" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA149">
+      <c r="U149" t="s">
+        <v>395</v>
+      </c>
+      <c r="V149">
         <v>25</v>
       </c>
-      <c r="AC149" s="9"/>
-    </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>431</v>
       </c>
@@ -16095,24 +15831,14 @@
       <c r="P150">
         <v>742226317</v>
       </c>
-      <c r="V150" t="s">
-        <v>123</v>
-      </c>
-      <c r="W150" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y150">
-        <v>0.13</v>
-      </c>
-      <c r="Z150" t="s">
+      <c r="U150" t="s">
         <v>141</v>
       </c>
-      <c r="AA150">
+      <c r="V150">
         <v>3200</v>
       </c>
-      <c r="AC150" s="9"/>
-    </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>559</v>
       </c>
@@ -16137,15 +15863,14 @@
       <c r="P151">
         <v>125916474</v>
       </c>
-      <c r="Z151" t="s">
+      <c r="U151" t="s">
         <v>141</v>
       </c>
-      <c r="AA151">
+      <c r="V151">
         <v>50</v>
       </c>
-      <c r="AC151" s="9"/>
-    </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>477</v>
       </c>
@@ -16170,15 +15895,14 @@
       <c r="P152">
         <v>123478147</v>
       </c>
-      <c r="Z152" t="s">
+      <c r="U152" t="s">
         <v>397</v>
       </c>
-      <c r="AA152">
+      <c r="V152">
         <v>50</v>
       </c>
-      <c r="AC152" s="9"/>
-    </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>485</v>
       </c>
@@ -16203,15 +15927,14 @@
       <c r="P153">
         <v>719468599</v>
       </c>
-      <c r="Z153" t="s">
+      <c r="U153" t="s">
         <v>397</v>
       </c>
-      <c r="AA153">
+      <c r="V153">
         <v>60</v>
       </c>
-      <c r="AC153" s="9"/>
-    </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>502</v>
       </c>
@@ -16236,15 +15959,14 @@
       <c r="P154">
         <v>557968416</v>
       </c>
-      <c r="Z154" t="s">
+      <c r="U154" t="s">
         <v>397</v>
       </c>
-      <c r="AA154">
+      <c r="V154">
         <v>40</v>
       </c>
-      <c r="AC154" s="9"/>
-    </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>517</v>
       </c>
@@ -16269,15 +15991,14 @@
       <c r="P155">
         <v>995474125</v>
       </c>
-      <c r="Z155" t="s">
+      <c r="U155" t="s">
         <v>397</v>
       </c>
-      <c r="AA155">
+      <c r="V155">
         <v>30</v>
       </c>
-      <c r="AC155" s="9"/>
-    </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>537</v>
       </c>
@@ -16302,15 +16023,14 @@
       <c r="P156">
         <v>302891595</v>
       </c>
-      <c r="Z156" t="s">
+      <c r="U156" t="s">
         <v>397</v>
       </c>
-      <c r="AA156">
+      <c r="V156">
         <v>30</v>
       </c>
-      <c r="AC156" s="9"/>
-    </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>449</v>
       </c>
@@ -16335,15 +16055,14 @@
       <c r="P157">
         <v>284283836</v>
       </c>
-      <c r="Z157" t="s">
+      <c r="U157" t="s">
         <v>398</v>
       </c>
-      <c r="AA157">
+      <c r="V157">
         <v>15000</v>
       </c>
-      <c r="AC157" s="9"/>
-    </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>454</v>
       </c>
@@ -16368,15 +16087,14 @@
       <c r="P158">
         <v>173225730</v>
       </c>
-      <c r="Z158" t="s">
+      <c r="U158" t="s">
         <v>398</v>
       </c>
-      <c r="AA158">
+      <c r="V158">
         <v>10000</v>
       </c>
-      <c r="AC158" s="9"/>
-    </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>522</v>
       </c>
@@ -16401,15 +16119,14 @@
       <c r="P159">
         <v>217468068</v>
       </c>
-      <c r="Z159" t="s">
+      <c r="U159" t="s">
         <v>398</v>
       </c>
-      <c r="AA159">
+      <c r="V159">
         <v>5000</v>
       </c>
-      <c r="AC159" s="9"/>
-    </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>546</v>
       </c>
@@ -16434,15 +16151,14 @@
       <c r="P160">
         <v>502840332</v>
       </c>
-      <c r="Z160" t="s">
+      <c r="U160" t="s">
         <v>398</v>
       </c>
-      <c r="AA160">
+      <c r="V160">
         <v>25000</v>
       </c>
-      <c r="AC160" s="9"/>
-    </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>418</v>
       </c>
@@ -16467,15 +16183,14 @@
       <c r="P161">
         <v>793547954</v>
       </c>
-      <c r="Z161" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA161">
+      <c r="U161" t="s">
+        <v>395</v>
+      </c>
+      <c r="V161">
         <v>350</v>
       </c>
-      <c r="AC161" s="9"/>
-    </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>419</v>
       </c>
@@ -16500,15 +16215,14 @@
       <c r="P162">
         <v>359591874</v>
       </c>
-      <c r="Z162" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA162">
+      <c r="U162" t="s">
+        <v>395</v>
+      </c>
+      <c r="V162">
         <v>200</v>
       </c>
-      <c r="AC162" s="9"/>
-    </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>420</v>
       </c>
@@ -16533,15 +16247,14 @@
       <c r="P163">
         <v>721334356</v>
       </c>
-      <c r="Z163" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA163">
+      <c r="U163" t="s">
+        <v>395</v>
+      </c>
+      <c r="V163">
         <v>12500</v>
       </c>
-      <c r="AC163" s="9"/>
-    </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>423</v>
       </c>
@@ -16566,15 +16279,14 @@
       <c r="P164">
         <v>718245555</v>
       </c>
-      <c r="Z164" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA164">
+      <c r="U164" t="s">
+        <v>395</v>
+      </c>
+      <c r="V164">
         <v>3000</v>
       </c>
-      <c r="AC164" s="9"/>
-    </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>424</v>
       </c>
@@ -16599,15 +16311,14 @@
       <c r="P165">
         <v>196207255</v>
       </c>
-      <c r="Z165" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA165">
+      <c r="U165" t="s">
+        <v>395</v>
+      </c>
+      <c r="V165">
         <v>2500</v>
       </c>
-      <c r="AC165" s="9"/>
-    </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>425</v>
       </c>
@@ -16632,15 +16343,14 @@
       <c r="P166">
         <v>296271554</v>
       </c>
-      <c r="Z166" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA166">
+      <c r="U166" t="s">
+        <v>395</v>
+      </c>
+      <c r="V166">
         <v>30000</v>
       </c>
-      <c r="AC166" s="9"/>
-    </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>426</v>
       </c>
@@ -16665,15 +16375,14 @@
       <c r="P167">
         <v>114655468</v>
       </c>
-      <c r="Z167" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA167">
+      <c r="U167" t="s">
+        <v>395</v>
+      </c>
+      <c r="V167">
         <v>25000</v>
       </c>
-      <c r="AC167" s="9"/>
-    </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>440</v>
       </c>
@@ -16698,15 +16407,14 @@
       <c r="P168">
         <v>266506100</v>
       </c>
-      <c r="Z168" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA168">
+      <c r="U168" t="s">
+        <v>395</v>
+      </c>
+      <c r="V168">
         <v>8000</v>
       </c>
-      <c r="AC168" s="9"/>
-    </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>441</v>
       </c>
@@ -16731,15 +16439,14 @@
       <c r="P169">
         <v>857065898</v>
       </c>
-      <c r="Z169" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA169">
+      <c r="U169" t="s">
+        <v>395</v>
+      </c>
+      <c r="V169">
         <v>5000</v>
       </c>
-      <c r="AC169" s="9"/>
-    </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>443</v>
       </c>
@@ -16764,15 +16471,14 @@
       <c r="P170">
         <v>308285156</v>
       </c>
-      <c r="Z170" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA170">
+      <c r="U170" t="s">
+        <v>395</v>
+      </c>
+      <c r="V170">
         <v>4500</v>
       </c>
-      <c r="AC170" s="9"/>
-    </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>444</v>
       </c>
@@ -16797,15 +16503,14 @@
       <c r="P171">
         <v>441791245</v>
       </c>
-      <c r="Z171" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA171">
+      <c r="U171" t="s">
+        <v>395</v>
+      </c>
+      <c r="V171">
         <v>4500</v>
       </c>
-      <c r="AC171" s="9"/>
-    </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>445</v>
       </c>
@@ -16830,15 +16535,14 @@
       <c r="P172">
         <v>280220947</v>
       </c>
-      <c r="Z172" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA172">
+      <c r="U172" t="s">
+        <v>395</v>
+      </c>
+      <c r="V172">
         <v>3000</v>
       </c>
-      <c r="AC172" s="9"/>
-    </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>446</v>
       </c>
@@ -16863,15 +16567,14 @@
       <c r="P173">
         <v>749820666</v>
       </c>
-      <c r="Z173" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA173">
+      <c r="U173" t="s">
+        <v>395</v>
+      </c>
+      <c r="V173">
         <v>2000</v>
       </c>
-      <c r="AC173" s="9"/>
-    </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>448</v>
       </c>
@@ -16896,15 +16599,14 @@
       <c r="P174">
         <v>893715820</v>
       </c>
-      <c r="Z174" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA174">
+      <c r="U174" t="s">
+        <v>395</v>
+      </c>
+      <c r="V174">
         <v>300</v>
       </c>
-      <c r="AC174" s="9"/>
-    </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>478</v>
       </c>
@@ -16929,15 +16631,14 @@
       <c r="P175">
         <v>263031110</v>
       </c>
-      <c r="Z175" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA175">
+      <c r="U175" t="s">
+        <v>395</v>
+      </c>
+      <c r="V175">
         <v>300</v>
       </c>
-      <c r="AC175" s="9"/>
-    </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>505</v>
       </c>
@@ -16962,15 +16663,14 @@
       <c r="P176">
         <v>195963935</v>
       </c>
-      <c r="Z176" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA176">
+      <c r="U176" t="s">
+        <v>395</v>
+      </c>
+      <c r="V176">
         <v>150</v>
       </c>
-      <c r="AC176" s="9"/>
-    </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>506</v>
       </c>
@@ -16995,15 +16695,14 @@
       <c r="P177">
         <v>438707328</v>
       </c>
-      <c r="Z177" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA177">
+      <c r="U177" t="s">
+        <v>395</v>
+      </c>
+      <c r="V177">
         <v>300</v>
       </c>
-      <c r="AC177" s="9"/>
-    </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>507</v>
       </c>
@@ -17028,15 +16727,14 @@
       <c r="P178">
         <v>873178746</v>
       </c>
-      <c r="Z178" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA178">
+      <c r="U178" t="s">
+        <v>395</v>
+      </c>
+      <c r="V178">
         <v>250</v>
       </c>
-      <c r="AC178" s="9"/>
-    </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>508</v>
       </c>
@@ -17061,15 +16759,14 @@
       <c r="P179">
         <v>487273064</v>
       </c>
-      <c r="Z179" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA179">
+      <c r="U179" t="s">
+        <v>395</v>
+      </c>
+      <c r="V179">
         <v>100</v>
       </c>
-      <c r="AC179" s="9"/>
-    </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>529</v>
       </c>
@@ -17094,15 +16791,14 @@
       <c r="P180">
         <v>507875801</v>
       </c>
-      <c r="Z180" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA180">
+      <c r="U180" t="s">
+        <v>395</v>
+      </c>
+      <c r="V180">
         <v>1200</v>
       </c>
-      <c r="AC180" s="9"/>
-    </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>539</v>
       </c>
@@ -17127,15 +16823,14 @@
       <c r="P181">
         <v>553132306</v>
       </c>
-      <c r="Z181" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA181">
+      <c r="U181" t="s">
+        <v>395</v>
+      </c>
+      <c r="V181">
         <v>800</v>
       </c>
-      <c r="AC181" s="9"/>
-    </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>540</v>
       </c>
@@ -17160,15 +16855,14 @@
       <c r="P182">
         <v>927896117</v>
       </c>
-      <c r="Z182" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA182">
+      <c r="U182" t="s">
+        <v>395</v>
+      </c>
+      <c r="V182">
         <v>3000</v>
       </c>
-      <c r="AC182" s="9"/>
-    </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>542</v>
       </c>
@@ -17193,15 +16887,14 @@
       <c r="P183">
         <v>812659712</v>
       </c>
-      <c r="Z183" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA183">
+      <c r="U183" t="s">
+        <v>395</v>
+      </c>
+      <c r="V183">
         <v>350</v>
       </c>
-      <c r="AC183" s="9"/>
-    </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>543</v>
       </c>
@@ -17226,15 +16919,14 @@
       <c r="P184">
         <v>535426370</v>
       </c>
-      <c r="Z184" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA184">
+      <c r="U184" t="s">
+        <v>395</v>
+      </c>
+      <c r="V184">
         <v>450</v>
       </c>
-      <c r="AC184" s="9"/>
-    </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>544</v>
       </c>
@@ -17259,15 +16951,14 @@
       <c r="P185">
         <v>262541870</v>
       </c>
-      <c r="Z185" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA185">
+      <c r="U185" t="s">
+        <v>395</v>
+      </c>
+      <c r="V185">
         <v>200</v>
       </c>
-      <c r="AC185" s="9"/>
-    </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>422</v>
       </c>
@@ -17292,24 +16983,14 @@
       <c r="P186">
         <v>923946615</v>
       </c>
-      <c r="V186" t="s">
-        <v>122</v>
-      </c>
-      <c r="W186" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y186">
-        <v>0.18</v>
-      </c>
-      <c r="Z186" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA186">
+      <c r="U186" t="s">
+        <v>395</v>
+      </c>
+      <c r="V186">
         <v>50</v>
       </c>
-      <c r="AC186" s="9"/>
-    </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>466</v>
       </c>
@@ -17334,15 +17015,14 @@
       <c r="P187">
         <v>301685601</v>
       </c>
-      <c r="Z187" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA187">
+      <c r="U187" t="s">
+        <v>395</v>
+      </c>
+      <c r="V187">
         <v>150</v>
       </c>
-      <c r="AC187" s="9"/>
-    </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>471</v>
       </c>
@@ -17367,15 +17047,14 @@
       <c r="P188">
         <v>872386795</v>
       </c>
-      <c r="Z188" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA188">
+      <c r="U188" t="s">
+        <v>395</v>
+      </c>
+      <c r="V188">
         <v>250</v>
       </c>
-      <c r="AC188" s="9"/>
-    </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>472</v>
       </c>
@@ -17400,15 +17079,14 @@
       <c r="P189">
         <v>988086277</v>
       </c>
-      <c r="Z189" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA189">
+      <c r="U189" t="s">
+        <v>395</v>
+      </c>
+      <c r="V189">
         <v>275</v>
       </c>
-      <c r="AC189" s="9"/>
-    </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>473</v>
       </c>
@@ -17433,15 +17111,14 @@
       <c r="P190">
         <v>526300089</v>
       </c>
-      <c r="Z190" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA190">
+      <c r="U190" t="s">
+        <v>395</v>
+      </c>
+      <c r="V190">
         <v>225</v>
       </c>
-      <c r="AC190" s="9"/>
-    </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>486</v>
       </c>
@@ -17466,15 +17143,14 @@
       <c r="P191">
         <v>384555555</v>
       </c>
-      <c r="Z191" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA191">
+      <c r="U191" t="s">
+        <v>395</v>
+      </c>
+      <c r="V191">
         <v>50</v>
       </c>
-      <c r="AC191" s="9"/>
-    </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>487</v>
       </c>
@@ -17499,15 +17175,14 @@
       <c r="P192">
         <v>686000795</v>
       </c>
-      <c r="Z192" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA192">
+      <c r="U192" t="s">
+        <v>395</v>
+      </c>
+      <c r="V192">
         <v>450</v>
       </c>
-      <c r="AC192" s="9"/>
-    </row>
-    <row r="193" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>488</v>
       </c>
@@ -17532,15 +17207,14 @@
       <c r="P193">
         <v>477123453</v>
       </c>
-      <c r="Z193" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA193">
+      <c r="U193" t="s">
+        <v>395</v>
+      </c>
+      <c r="V193">
         <v>700</v>
       </c>
-      <c r="AC193" s="9"/>
-    </row>
-    <row r="194" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>569</v>
       </c>
@@ -17565,15 +17239,14 @@
       <c r="P194">
         <v>249427785</v>
       </c>
-      <c r="Z194" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA194">
+      <c r="U194" t="s">
+        <v>395</v>
+      </c>
+      <c r="V194">
         <v>300</v>
       </c>
-      <c r="AC194" s="9"/>
-    </row>
-    <row r="195" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>110</v>
       </c>
@@ -17598,15 +17271,14 @@
       <c r="P195">
         <v>730477306</v>
       </c>
-      <c r="Z195" t="s">
+      <c r="U195" t="s">
         <v>398</v>
       </c>
-      <c r="AA195">
+      <c r="V195">
         <v>30000</v>
       </c>
-      <c r="AC195" s="9"/>
-    </row>
-    <row r="196" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>493</v>
       </c>
@@ -17631,15 +17303,14 @@
       <c r="P196">
         <v>347617633</v>
       </c>
-      <c r="Z196" t="s">
+      <c r="U196" t="s">
         <v>398</v>
       </c>
-      <c r="AA196">
+      <c r="V196">
         <v>15000</v>
       </c>
-      <c r="AC196" s="9"/>
-    </row>
-    <row r="197" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>511</v>
       </c>
@@ -17664,15 +17335,14 @@
       <c r="P197">
         <v>967625936</v>
       </c>
-      <c r="Z197" t="s">
+      <c r="U197" t="s">
         <v>398</v>
       </c>
-      <c r="AA197">
+      <c r="V197">
         <v>15000</v>
       </c>
-      <c r="AC197" s="9"/>
-    </row>
-    <row r="198" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>550</v>
       </c>
@@ -17697,15 +17367,14 @@
       <c r="P198">
         <v>937283924</v>
       </c>
-      <c r="Z198" t="s">
+      <c r="U198" t="s">
         <v>398</v>
       </c>
-      <c r="AA198">
+      <c r="V198">
         <v>20000</v>
       </c>
-      <c r="AC198" s="9"/>
-    </row>
-    <row r="199" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>584</v>
       </c>
@@ -17730,35 +17399,35 @@
       <c r="P199">
         <v>978393972</v>
       </c>
-      <c r="S199">
+      <c r="R199">
         <v>1.5</v>
       </c>
-      <c r="U199" t="s">
+      <c r="T199" t="s">
         <v>151</v>
       </c>
+      <c r="W199" t="s">
+        <v>27</v>
+      </c>
+      <c r="X199" s="9">
+        <v>23925</v>
+      </c>
+      <c r="Y199" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z199" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA199" t="s">
+        <v>62</v>
+      </c>
       <c r="AB199" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC199" s="9">
-        <v>23925</v>
-      </c>
-      <c r="AD199" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE199" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF199" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG199" t="s">
         <v>317</v>
       </c>
-      <c r="AH199" t="s">
+      <c r="AC199" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="200" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>585</v>
       </c>
@@ -17783,35 +17452,35 @@
       <c r="P200">
         <v>283927443</v>
       </c>
-      <c r="S200">
+      <c r="R200">
         <v>1</v>
       </c>
-      <c r="U200" t="s">
+      <c r="T200" t="s">
         <v>152</v>
       </c>
+      <c r="W200" t="s">
+        <v>28</v>
+      </c>
+      <c r="X200" s="9">
+        <v>28154</v>
+      </c>
+      <c r="Y200" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z200" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA200" t="s">
+        <v>63</v>
+      </c>
       <c r="AB200" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC200" s="9">
-        <v>28154</v>
-      </c>
-      <c r="AD200" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE200" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF200" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG200" t="s">
         <v>318</v>
       </c>
-      <c r="AH200" t="s">
+      <c r="AC200" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="201" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>586</v>
       </c>
@@ -17836,35 +17505,35 @@
       <c r="P201">
         <v>798506307</v>
       </c>
-      <c r="S201">
+      <c r="R201">
         <v>1.5</v>
       </c>
-      <c r="U201" t="s">
+      <c r="T201" t="s">
         <v>153</v>
       </c>
+      <c r="W201" t="s">
+        <v>29</v>
+      </c>
+      <c r="X201" s="9">
+        <v>18483</v>
+      </c>
+      <c r="Y201" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z201" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA201" t="s">
+        <v>62</v>
+      </c>
       <c r="AB201" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC201" s="9">
-        <v>18483</v>
-      </c>
-      <c r="AD201" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE201" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF201" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG201" t="s">
         <v>317</v>
       </c>
-      <c r="AH201" t="s">
+      <c r="AC201" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="202" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>587</v>
       </c>
@@ -17889,35 +17558,35 @@
       <c r="P202">
         <v>581240417</v>
       </c>
-      <c r="S202">
+      <c r="R202">
         <v>1</v>
       </c>
-      <c r="U202" t="s">
+      <c r="T202" t="s">
         <v>47</v>
       </c>
+      <c r="W202" t="s">
+        <v>30</v>
+      </c>
+      <c r="X202" s="9">
+        <v>25556</v>
+      </c>
+      <c r="Y202" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z202" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA202" t="s">
+        <v>63</v>
+      </c>
       <c r="AB202" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC202" s="9">
-        <v>25556</v>
-      </c>
-      <c r="AD202" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE202" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF202" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG202" t="s">
         <v>318</v>
       </c>
-      <c r="AH202" t="s">
+      <c r="AC202" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="203" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>588</v>
       </c>
@@ -17942,35 +17611,35 @@
       <c r="P203">
         <v>685224302</v>
       </c>
-      <c r="S203">
+      <c r="R203">
         <v>1</v>
       </c>
-      <c r="U203" t="s">
+      <c r="T203" t="s">
         <v>154</v>
       </c>
+      <c r="W203" t="s">
+        <v>31</v>
+      </c>
+      <c r="X203" s="9">
+        <v>32387</v>
+      </c>
+      <c r="Y203" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z203" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA203" t="s">
+        <v>63</v>
+      </c>
       <c r="AB203" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC203" s="9">
-        <v>32387</v>
-      </c>
-      <c r="AD203" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE203" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF203" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG203" t="s">
         <v>318</v>
       </c>
-      <c r="AH203" t="s">
+      <c r="AC203" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="204" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>589</v>
       </c>
@@ -17995,35 +17664,35 @@
       <c r="P204">
         <v>151250734</v>
       </c>
-      <c r="S204">
+      <c r="R204">
         <v>1.5</v>
       </c>
-      <c r="U204" t="s">
+      <c r="T204" t="s">
         <v>155</v>
       </c>
+      <c r="W204" t="s">
+        <v>32</v>
+      </c>
+      <c r="X204" s="9">
+        <v>28785</v>
+      </c>
+      <c r="Y204" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z204" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA204" t="s">
+        <v>62</v>
+      </c>
       <c r="AB204" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC204" s="9">
-        <v>28785</v>
-      </c>
-      <c r="AD204" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE204" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF204" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG204" t="s">
         <v>317</v>
       </c>
-      <c r="AH204" t="s">
+      <c r="AC204" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="205" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>590</v>
       </c>
@@ -18048,35 +17717,35 @@
       <c r="P205">
         <v>250662392</v>
       </c>
-      <c r="S205">
+      <c r="R205">
         <v>0.5</v>
       </c>
-      <c r="U205" t="s">
+      <c r="T205" t="s">
         <v>48</v>
       </c>
+      <c r="W205" t="s">
+        <v>33</v>
+      </c>
+      <c r="X205" s="9">
+        <v>27717</v>
+      </c>
+      <c r="Y205" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z205" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA205" t="s">
+        <v>64</v>
+      </c>
       <c r="AB205" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC205" s="9">
-        <v>27717</v>
-      </c>
-      <c r="AD205" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE205" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF205" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG205" t="s">
         <v>319</v>
       </c>
-      <c r="AH205" t="s">
+      <c r="AC205" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="206" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>591</v>
       </c>
@@ -18101,35 +17770,35 @@
       <c r="P206">
         <v>324757253</v>
       </c>
-      <c r="S206">
+      <c r="R206">
         <v>1</v>
       </c>
-      <c r="U206" t="s">
+      <c r="T206" t="s">
         <v>156</v>
       </c>
+      <c r="W206" t="s">
+        <v>34</v>
+      </c>
+      <c r="X206" s="9">
+        <v>20669</v>
+      </c>
+      <c r="Y206" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z206" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA206" t="s">
+        <v>63</v>
+      </c>
       <c r="AB206" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC206" s="9">
-        <v>20669</v>
-      </c>
-      <c r="AD206" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE206" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF206" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG206" t="s">
         <v>318</v>
       </c>
-      <c r="AH206" t="s">
+      <c r="AC206" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="207" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>592</v>
       </c>
@@ -18154,35 +17823,35 @@
       <c r="P207">
         <v>221693665</v>
       </c>
-      <c r="S207">
+      <c r="R207">
         <v>1</v>
       </c>
-      <c r="U207" t="s">
+      <c r="T207" t="s">
         <v>157</v>
       </c>
+      <c r="W207" t="s">
+        <v>35</v>
+      </c>
+      <c r="X207" s="9">
+        <v>20927</v>
+      </c>
+      <c r="Y207" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z207" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA207" t="s">
+        <v>63</v>
+      </c>
       <c r="AB207" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC207" s="9">
-        <v>20927</v>
-      </c>
-      <c r="AD207" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE207" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF207" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG207" t="s">
         <v>318</v>
       </c>
-      <c r="AH207" t="s">
+      <c r="AC207" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="208" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>593</v>
       </c>
@@ -18207,31 +17876,31 @@
       <c r="P208">
         <v>591219077</v>
       </c>
-      <c r="S208">
+      <c r="R208">
         <v>0.5</v>
       </c>
-      <c r="U208" t="s">
+      <c r="T208" t="s">
         <v>158</v>
       </c>
+      <c r="W208" t="s">
+        <v>36</v>
+      </c>
+      <c r="X208" s="9">
+        <v>37973</v>
+      </c>
+      <c r="Y208" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z208" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA208" t="s">
+        <v>64</v>
+      </c>
       <c r="AB208" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC208" s="9">
-        <v>37973</v>
-      </c>
-      <c r="AD208" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE208" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF208" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG208" t="s">
         <v>319</v>
       </c>
-      <c r="AH208" t="s">
+      <c r="AC208" t="s">
         <v>582</v>
       </c>
     </row>

--- a/agents/agent_profiles.xlsx
+++ b/agents/agent_profiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/dev/Synthetic_Modeling/Synthetic_Modeling/agents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3060524-41DF-EC48-A5A7-CCDDD71CF5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22242A0-AC93-8648-BEBA-8886FBF4ECA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="1520" windowWidth="27580" windowHeight="14320" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4695" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4866" uniqueCount="618">
   <si>
     <t>swift_code</t>
   </si>
@@ -1916,6 +1916,9 @@
   </si>
   <si>
     <t>BANK0513</t>
+  </si>
+  <si>
+    <t>merchant</t>
   </si>
 </sst>
 </file>
@@ -2035,21 +2038,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="71">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -2302,10 +2290,25 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2661,31 +2664,31 @@
     <tableColumn id="9" xr3:uid="{00C710E1-3082-5A4D-8223-7F9FBBBC2C27}" uniqueName="9" name="bank_type" queryTableFieldId="9" dataDxfId="30"/>
     <tableColumn id="10" xr3:uid="{74FB91F3-88CF-984E-AF41-C8993FEE602E}" uniqueName="10" name="EIN" queryTableFieldId="10" dataDxfId="29"/>
     <tableColumn id="11" xr3:uid="{0B830FDB-66DC-4447-8627-217859C98B93}" uniqueName="11" name="naics_code" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{3D0D6912-BC0C-A746-BE35-186F1D3BDB25}" uniqueName="12" name="naics_description" queryTableFieldId="12" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{748E761C-0347-2549-8C90-6732E9BC1693}" uniqueName="13" name="incorporation_date" queryTableFieldId="13" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{3D0D6912-BC0C-A746-BE35-186F1D3BDB25}" uniqueName="12" name="naics_description" queryTableFieldId="12" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{748E761C-0347-2549-8C90-6732E9BC1693}" uniqueName="13" name="incorporation_date" queryTableFieldId="13" dataDxfId="27"/>
     <tableColumn id="14" xr3:uid="{73D3F1E8-0CB6-3940-9DBF-52418C53386C}" uniqueName="14" name="business_address" queryTableFieldId="14"/>
     <tableColumn id="15" xr3:uid="{A4FF23AD-D116-6D49-A1DB-E8110AC63A4E}" uniqueName="15" name="bank" queryTableFieldId="15"/>
     <tableColumn id="16" xr3:uid="{F5FB587C-2C4D-1E44-A65B-2589B849CB46}" uniqueName="16" name="account_number" queryTableFieldId="16"/>
-    <tableColumn id="18" xr3:uid="{C3C1D91F-AC57-ED4A-978C-1C3FC485324A}" uniqueName="18" name="merchant_patterns" queryTableFieldId="18" dataDxfId="28"/>
+    <tableColumn id="18" xr3:uid="{C3C1D91F-AC57-ED4A-978C-1C3FC485324A}" uniqueName="18" name="merchant_patterns" queryTableFieldId="18" dataDxfId="26"/>
     <tableColumn id="19" xr3:uid="{56AA05C1-F5A2-BA45-B75F-E88884B01510}" uniqueName="19" name="transaction_scaler" queryTableFieldId="19"/>
-    <tableColumn id="20" xr3:uid="{F4299F90-C7DF-3240-A964-E343E8F23B5F}" uniqueName="20" name="account_holder_name" queryTableFieldId="20" dataDxfId="27"/>
-    <tableColumn id="21" xr3:uid="{C42CB5B1-AEB2-A845-AB0C-C63D3B74D190}" uniqueName="21" name="phone_number" queryTableFieldId="21" dataDxfId="26"/>
-    <tableColumn id="26" xr3:uid="{F5EFBEBE-C969-6340-A872-E6AC90B8F197}" uniqueName="26" name="accepted_payment_methods" queryTableFieldId="26" dataDxfId="25"/>
+    <tableColumn id="20" xr3:uid="{F4299F90-C7DF-3240-A964-E343E8F23B5F}" uniqueName="20" name="account_holder_name" queryTableFieldId="20" dataDxfId="25"/>
+    <tableColumn id="21" xr3:uid="{C42CB5B1-AEB2-A845-AB0C-C63D3B74D190}" uniqueName="21" name="phone_number" queryTableFieldId="21" dataDxfId="24"/>
+    <tableColumn id="26" xr3:uid="{F5EFBEBE-C969-6340-A872-E6AC90B8F197}" uniqueName="26" name="accepted_payment_methods" queryTableFieldId="26" dataDxfId="23"/>
     <tableColumn id="27" xr3:uid="{74643C0A-2014-0246-934F-6242EE61E703}" uniqueName="27" name="average_expense" queryTableFieldId="27"/>
-    <tableColumn id="28" xr3:uid="{C86109AA-888F-DA43-A89A-E4FCFC1B6314}" uniqueName="28" name="ssn" queryTableFieldId="28" dataDxfId="2"/>
-    <tableColumn id="29" xr3:uid="{F9C6E63F-4181-8940-9563-D07A6A4E2C6A}" uniqueName="29" name="dob" queryTableFieldId="29" dataDxfId="0"/>
-    <tableColumn id="30" xr3:uid="{97FB6244-389F-3441-BB37-351B806D40F0}" uniqueName="30" name="email" queryTableFieldId="30" dataDxfId="1"/>
-    <tableColumn id="31" xr3:uid="{82EE3E36-C572-9041-BD78-EFB7583DB816}" uniqueName="31" name="employment_status" queryTableFieldId="31" dataDxfId="24"/>
-    <tableColumn id="32" xr3:uid="{BE4F97CE-C42D-5743-97AD-28D743A9F484}" uniqueName="32" name="income_level" queryTableFieldId="32" dataDxfId="23"/>
-    <tableColumn id="33" xr3:uid="{5AE23FB5-02D8-DB46-8191-A9DF4DAB40EC}" uniqueName="33" name="merchants" queryTableFieldId="33" dataDxfId="22"/>
-    <tableColumn id="34" xr3:uid="{47E74BEC-37E8-1241-8FC2-797714353567}" uniqueName="34" name="merchant_frequency" queryTableFieldId="34" dataDxfId="21"/>
+    <tableColumn id="28" xr3:uid="{C86109AA-888F-DA43-A89A-E4FCFC1B6314}" uniqueName="28" name="ssn" queryTableFieldId="28" dataDxfId="22"/>
+    <tableColumn id="29" xr3:uid="{F9C6E63F-4181-8940-9563-D07A6A4E2C6A}" uniqueName="29" name="dob" queryTableFieldId="29" dataDxfId="21"/>
+    <tableColumn id="30" xr3:uid="{97FB6244-389F-3441-BB37-351B806D40F0}" uniqueName="30" name="email" queryTableFieldId="30" dataDxfId="20"/>
+    <tableColumn id="31" xr3:uid="{82EE3E36-C572-9041-BD78-EFB7583DB816}" uniqueName="31" name="employment_status" queryTableFieldId="31" dataDxfId="19"/>
+    <tableColumn id="32" xr3:uid="{BE4F97CE-C42D-5743-97AD-28D743A9F484}" uniqueName="32" name="income_level" queryTableFieldId="32" dataDxfId="18"/>
+    <tableColumn id="33" xr3:uid="{5AE23FB5-02D8-DB46-8191-A9DF4DAB40EC}" uniqueName="33" name="merchants" queryTableFieldId="33" dataDxfId="17"/>
+    <tableColumn id="34" xr3:uid="{47E74BEC-37E8-1241-8FC2-797714353567}" uniqueName="34" name="merchant_frequency" queryTableFieldId="34" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D578B23E-8A83-F04B-971E-ED2B42F718A1}" name="banks" displayName="banks" ref="A1:I4" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D578B23E-8A83-F04B-971E-ED2B42F718A1}" name="banks" displayName="banks" ref="A1:I4" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="A1:I4" xr:uid="{D578B23E-8A83-F04B-971E-ED2B42F718A1}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{652A7AEC-C2AF-6949-AFA4-378DC8BDCD38}" name="entity_id"/>
@@ -2703,7 +2706,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{680087BA-8ED1-D24F-B249-1ED76B0B1B9E}" name="People" displayName="People" ref="A1:Q11" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{680087BA-8ED1-D24F-B249-1ED76B0B1B9E}" name="People" displayName="People" ref="A1:Q11" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A1:Q11" xr:uid="{680087BA-8ED1-D24F-B249-1ED76B0B1B9E}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{454C68CE-6D61-204B-8CB8-44035D7E6904}" name="entity_id"/>
@@ -2712,7 +2715,7 @@
     <tableColumn id="17" xr3:uid="{30F1D7AE-6D87-5D40-B29A-78CA0DE7F06C}" name="receives"/>
     <tableColumn id="2" xr3:uid="{57B20931-29A8-9F4C-A212-F984003332F2}" name="name"/>
     <tableColumn id="3" xr3:uid="{48A29B0A-4432-1B45-9F51-5A71C80B8383}" name="ssn"/>
-    <tableColumn id="4" xr3:uid="{250F10FA-321E-A549-B726-1E6FAE9F2E4D}" name="dob" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{250F10FA-321E-A549-B726-1E6FAE9F2E4D}" name="dob" dataDxfId="11"/>
     <tableColumn id="5" xr3:uid="{625759B0-9657-4F48-8A10-244F3B1141B4}" name="address"/>
     <tableColumn id="6" xr3:uid="{EE634EB5-84E3-8940-B16A-6AD4A2313C1B}" name="phone_number"/>
     <tableColumn id="7" xr3:uid="{B4766EFC-E431-924D-B2CE-8B9E28ADD644}" name="email"/>
@@ -2721,7 +2724,7 @@
     <tableColumn id="10" xr3:uid="{32052348-F470-2645-85B2-7E6468A98911}" name="employment_status"/>
     <tableColumn id="11" xr3:uid="{4EECB0F8-CF71-B743-A3CC-AE0E1DC4EEBE}" name="income_level"/>
     <tableColumn id="12" xr3:uid="{3436FD50-2241-464F-A1DD-E2A6DFCCE0A9}" name="transaction_scaler"/>
-    <tableColumn id="13" xr3:uid="{97F0A11E-C7E6-0E4D-94E0-B5F1FB994AA4}" name="merchants" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{97F0A11E-C7E6-0E4D-94E0-B5F1FB994AA4}" name="merchants" dataDxfId="10"/>
     <tableColumn id="14" xr3:uid="{8E606808-4DE2-2347-ACA6-1C61515AFA5D}" name="merchant_frequency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2729,7 +2732,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8C51F29F-5B06-934C-A68B-AD622BF87CD5}" name="Companies" displayName="Companies" ref="A1:R24" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8C51F29F-5B06-934C-A68B-AD622BF87CD5}" name="Companies" displayName="Companies" ref="A1:R24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
   <autoFilter ref="A1:R24" xr:uid="{8C51F29F-5B06-934C-A68B-AD622BF87CD5}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0A99A065-B668-E044-A806-53D986FCB20F}" name="entity_id"/>
@@ -2747,16 +2750,16 @@
     <tableColumn id="10" xr3:uid="{C1DBD6D2-715C-C24C-839F-94822A7BE075}" name="monthly_revenue_range"/>
     <tableColumn id="11" xr3:uid="{89523FD3-452C-5B4C-95CB-85E274C177F2}" name="merchant_patterns"/>
     <tableColumn id="12" xr3:uid="{8EDA4FA0-6545-394F-A0B8-F4B1D86840AA}" name="transaction_scaler"/>
-    <tableColumn id="13" xr3:uid="{46A96246-7DEF-084A-81CC-EEB4B58D40D9}" name="account_holder_name" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{18052DA4-9FA2-A942-B9AF-F9A8C5FD30B2}" name="address" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{E4CE4E44-EE71-E446-85B9-0AB6003C1DAD}" name="phone_number" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{46A96246-7DEF-084A-81CC-EEB4B58D40D9}" name="account_holder_name" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{18052DA4-9FA2-A942-B9AF-F9A8C5FD30B2}" name="address" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{E4CE4E44-EE71-E446-85B9-0AB6003C1DAD}" name="phone_number" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F4F56D53-07F6-DE4C-A300-92F755A46222}" name="Merchants" displayName="Merchants" ref="A1:N172" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F4F56D53-07F6-DE4C-A300-92F755A46222}" name="Merchants" displayName="Merchants" ref="A1:N172" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:N172" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N172">
     <sortCondition descending="1" ref="F1:F172"/>
@@ -10565,8 +10568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7DD66F-B0D3-2140-9278-779E6CEBA4A6}">
   <dimension ref="A1:AC208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:X1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11918,6 +11921,9 @@
       <c r="A28" t="s">
         <v>503</v>
       </c>
+      <c r="B28" t="s">
+        <v>617</v>
+      </c>
       <c r="C28" t="s">
         <v>614</v>
       </c>
@@ -11950,6 +11956,9 @@
       <c r="A29" t="s">
         <v>439</v>
       </c>
+      <c r="B29" t="s">
+        <v>617</v>
+      </c>
       <c r="C29" t="s">
         <v>614</v>
       </c>
@@ -11982,6 +11991,9 @@
       <c r="A30" t="s">
         <v>501</v>
       </c>
+      <c r="B30" t="s">
+        <v>617</v>
+      </c>
       <c r="C30" t="s">
         <v>614</v>
       </c>
@@ -12013,6 +12025,9 @@
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>513</v>
+      </c>
+      <c r="B31" t="s">
+        <v>617</v>
       </c>
       <c r="C31" t="s">
         <v>614</v>
@@ -12046,6 +12061,9 @@
       <c r="A32" t="s">
         <v>551</v>
       </c>
+      <c r="B32" t="s">
+        <v>617</v>
+      </c>
       <c r="C32" t="s">
         <v>614</v>
       </c>
@@ -12078,6 +12096,9 @@
       <c r="A33" t="s">
         <v>554</v>
       </c>
+      <c r="B33" t="s">
+        <v>617</v>
+      </c>
       <c r="C33" t="s">
         <v>614</v>
       </c>
@@ -12110,6 +12131,9 @@
       <c r="A34" t="s">
         <v>109</v>
       </c>
+      <c r="B34" t="s">
+        <v>617</v>
+      </c>
       <c r="C34" t="s">
         <v>614</v>
       </c>
@@ -12139,6 +12163,9 @@
       <c r="A35" t="s">
         <v>457</v>
       </c>
+      <c r="B35" t="s">
+        <v>617</v>
+      </c>
       <c r="C35" t="s">
         <v>614</v>
       </c>
@@ -12171,6 +12198,9 @@
       <c r="A36" t="s">
         <v>510</v>
       </c>
+      <c r="B36" t="s">
+        <v>617</v>
+      </c>
       <c r="C36" t="s">
         <v>614</v>
       </c>
@@ -12203,6 +12233,9 @@
       <c r="A37" t="s">
         <v>570</v>
       </c>
+      <c r="B37" t="s">
+        <v>617</v>
+      </c>
       <c r="C37" t="s">
         <v>614</v>
       </c>
@@ -12235,6 +12268,9 @@
       <c r="A38" t="s">
         <v>108</v>
       </c>
+      <c r="B38" t="s">
+        <v>617</v>
+      </c>
       <c r="C38" t="s">
         <v>614</v>
       </c>
@@ -12264,6 +12300,9 @@
       <c r="A39" t="s">
         <v>113</v>
       </c>
+      <c r="B39" t="s">
+        <v>617</v>
+      </c>
       <c r="C39" t="s">
         <v>614</v>
       </c>
@@ -12296,6 +12335,9 @@
       <c r="A40" t="s">
         <v>447</v>
       </c>
+      <c r="B40" t="s">
+        <v>617</v>
+      </c>
       <c r="C40" t="s">
         <v>614</v>
       </c>
@@ -12328,6 +12370,9 @@
       <c r="A41" t="s">
         <v>474</v>
       </c>
+      <c r="B41" t="s">
+        <v>617</v>
+      </c>
       <c r="C41" t="s">
         <v>614</v>
       </c>
@@ -12360,6 +12405,9 @@
       <c r="A42" t="s">
         <v>476</v>
       </c>
+      <c r="B42" t="s">
+        <v>617</v>
+      </c>
       <c r="C42" t="s">
         <v>614</v>
       </c>
@@ -12392,6 +12440,9 @@
       <c r="A43" t="s">
         <v>481</v>
       </c>
+      <c r="B43" t="s">
+        <v>617</v>
+      </c>
       <c r="C43" t="s">
         <v>614</v>
       </c>
@@ -12424,6 +12475,9 @@
       <c r="A44" t="s">
         <v>495</v>
       </c>
+      <c r="B44" t="s">
+        <v>617</v>
+      </c>
       <c r="C44" t="s">
         <v>614</v>
       </c>
@@ -12456,6 +12510,9 @@
       <c r="A45" t="s">
         <v>509</v>
       </c>
+      <c r="B45" t="s">
+        <v>617</v>
+      </c>
       <c r="C45" t="s">
         <v>614</v>
       </c>
@@ -12488,6 +12545,9 @@
       <c r="A46" t="s">
         <v>571</v>
       </c>
+      <c r="B46" t="s">
+        <v>617</v>
+      </c>
       <c r="C46" t="s">
         <v>614</v>
       </c>
@@ -12520,6 +12580,9 @@
       <c r="A47" t="s">
         <v>576</v>
       </c>
+      <c r="B47" t="s">
+        <v>617</v>
+      </c>
       <c r="C47" t="s">
         <v>614</v>
       </c>
@@ -12552,6 +12615,9 @@
       <c r="A48" t="s">
         <v>453</v>
       </c>
+      <c r="B48" t="s">
+        <v>617</v>
+      </c>
       <c r="C48" t="s">
         <v>614</v>
       </c>
@@ -12584,6 +12650,9 @@
       <c r="A49" t="s">
         <v>536</v>
       </c>
+      <c r="B49" t="s">
+        <v>617</v>
+      </c>
       <c r="C49" t="s">
         <v>614</v>
       </c>
@@ -12616,6 +12685,9 @@
       <c r="A50" t="s">
         <v>575</v>
       </c>
+      <c r="B50" t="s">
+        <v>617</v>
+      </c>
       <c r="C50" t="s">
         <v>614</v>
       </c>
@@ -12642,6 +12714,9 @@
       <c r="A51" t="s">
         <v>479</v>
       </c>
+      <c r="B51" t="s">
+        <v>617</v>
+      </c>
       <c r="C51" t="s">
         <v>614</v>
       </c>
@@ -12674,6 +12749,9 @@
       <c r="A52" t="s">
         <v>512</v>
       </c>
+      <c r="B52" t="s">
+        <v>617</v>
+      </c>
       <c r="C52" t="s">
         <v>614</v>
       </c>
@@ -12706,6 +12784,9 @@
       <c r="A53" t="s">
         <v>538</v>
       </c>
+      <c r="B53" t="s">
+        <v>617</v>
+      </c>
       <c r="C53" t="s">
         <v>614</v>
       </c>
@@ -12738,6 +12819,9 @@
       <c r="A54" t="s">
         <v>541</v>
       </c>
+      <c r="B54" t="s">
+        <v>617</v>
+      </c>
       <c r="C54" t="s">
         <v>614</v>
       </c>
@@ -12770,6 +12854,9 @@
       <c r="A55" t="s">
         <v>568</v>
       </c>
+      <c r="B55" t="s">
+        <v>617</v>
+      </c>
       <c r="C55" t="s">
         <v>614</v>
       </c>
@@ -12802,6 +12889,9 @@
       <c r="A56" t="s">
         <v>577</v>
       </c>
+      <c r="B56" t="s">
+        <v>617</v>
+      </c>
       <c r="C56" t="s">
         <v>614</v>
       </c>
@@ -12834,6 +12924,9 @@
       <c r="A57" t="s">
         <v>547</v>
       </c>
+      <c r="B57" t="s">
+        <v>617</v>
+      </c>
       <c r="C57" t="s">
         <v>614</v>
       </c>
@@ -12866,6 +12959,9 @@
       <c r="A58" t="s">
         <v>548</v>
       </c>
+      <c r="B58" t="s">
+        <v>617</v>
+      </c>
       <c r="C58" t="s">
         <v>614</v>
       </c>
@@ -12898,6 +12994,9 @@
       <c r="A59" t="s">
         <v>552</v>
       </c>
+      <c r="B59" t="s">
+        <v>617</v>
+      </c>
       <c r="C59" t="s">
         <v>614</v>
       </c>
@@ -12930,6 +13029,9 @@
       <c r="A60" t="s">
         <v>504</v>
       </c>
+      <c r="B60" t="s">
+        <v>617</v>
+      </c>
       <c r="C60" t="s">
         <v>614</v>
       </c>
@@ -12962,6 +13064,9 @@
       <c r="A61" t="s">
         <v>553</v>
       </c>
+      <c r="B61" t="s">
+        <v>617</v>
+      </c>
       <c r="C61" t="s">
         <v>614</v>
       </c>
@@ -12994,6 +13099,9 @@
       <c r="A62" t="s">
         <v>555</v>
       </c>
+      <c r="B62" t="s">
+        <v>617</v>
+      </c>
       <c r="C62" t="s">
         <v>614</v>
       </c>
@@ -13026,6 +13134,9 @@
       <c r="A63" t="s">
         <v>556</v>
       </c>
+      <c r="B63" t="s">
+        <v>617</v>
+      </c>
       <c r="C63" t="s">
         <v>614</v>
       </c>
@@ -13058,6 +13169,9 @@
       <c r="A64" t="s">
         <v>557</v>
       </c>
+      <c r="B64" t="s">
+        <v>617</v>
+      </c>
       <c r="C64" t="s">
         <v>614</v>
       </c>
@@ -13090,6 +13204,9 @@
       <c r="A65" t="s">
         <v>558</v>
       </c>
+      <c r="B65" t="s">
+        <v>617</v>
+      </c>
       <c r="C65" t="s">
         <v>614</v>
       </c>
@@ -13122,6 +13239,9 @@
       <c r="A66" t="s">
         <v>561</v>
       </c>
+      <c r="B66" t="s">
+        <v>617</v>
+      </c>
       <c r="C66" t="s">
         <v>614</v>
       </c>
@@ -13154,6 +13274,9 @@
       <c r="A67" t="s">
         <v>562</v>
       </c>
+      <c r="B67" t="s">
+        <v>617</v>
+      </c>
       <c r="C67" t="s">
         <v>614</v>
       </c>
@@ -13186,6 +13309,9 @@
       <c r="A68" t="s">
         <v>563</v>
       </c>
+      <c r="B68" t="s">
+        <v>617</v>
+      </c>
       <c r="C68" t="s">
         <v>614</v>
       </c>
@@ -13218,6 +13344,9 @@
       <c r="A69" t="s">
         <v>564</v>
       </c>
+      <c r="B69" t="s">
+        <v>617</v>
+      </c>
       <c r="C69" t="s">
         <v>614</v>
       </c>
@@ -13250,6 +13379,9 @@
       <c r="A70" t="s">
         <v>565</v>
       </c>
+      <c r="B70" t="s">
+        <v>617</v>
+      </c>
       <c r="C70" t="s">
         <v>614</v>
       </c>
@@ -13282,6 +13414,9 @@
       <c r="A71" t="s">
         <v>566</v>
       </c>
+      <c r="B71" t="s">
+        <v>617</v>
+      </c>
       <c r="C71" t="s">
         <v>614</v>
       </c>
@@ -13314,6 +13449,9 @@
       <c r="A72" t="s">
         <v>567</v>
       </c>
+      <c r="B72" t="s">
+        <v>617</v>
+      </c>
       <c r="C72" t="s">
         <v>614</v>
       </c>
@@ -13346,6 +13484,9 @@
       <c r="A73" t="s">
         <v>421</v>
       </c>
+      <c r="B73" t="s">
+        <v>617</v>
+      </c>
       <c r="C73" t="s">
         <v>614</v>
       </c>
@@ -13378,6 +13519,9 @@
       <c r="A74" t="s">
         <v>455</v>
       </c>
+      <c r="B74" t="s">
+        <v>617</v>
+      </c>
       <c r="C74" t="s">
         <v>614</v>
       </c>
@@ -13410,6 +13554,9 @@
       <c r="A75" t="s">
         <v>458</v>
       </c>
+      <c r="B75" t="s">
+        <v>617</v>
+      </c>
       <c r="C75" t="s">
         <v>614</v>
       </c>
@@ -13442,6 +13589,9 @@
       <c r="A76" t="s">
         <v>470</v>
       </c>
+      <c r="B76" t="s">
+        <v>617</v>
+      </c>
       <c r="C76" t="s">
         <v>614</v>
       </c>
@@ -13474,6 +13624,9 @@
       <c r="A77" t="s">
         <v>526</v>
       </c>
+      <c r="B77" t="s">
+        <v>617</v>
+      </c>
       <c r="C77" t="s">
         <v>614</v>
       </c>
@@ -13506,6 +13659,9 @@
       <c r="A78" t="s">
         <v>549</v>
       </c>
+      <c r="B78" t="s">
+        <v>617</v>
+      </c>
       <c r="C78" t="s">
         <v>614</v>
       </c>
@@ -13538,6 +13694,9 @@
       <c r="A79" t="s">
         <v>460</v>
       </c>
+      <c r="B79" t="s">
+        <v>617</v>
+      </c>
       <c r="C79" t="s">
         <v>614</v>
       </c>
@@ -13570,6 +13729,9 @@
       <c r="A80" t="s">
         <v>427</v>
       </c>
+      <c r="B80" t="s">
+        <v>617</v>
+      </c>
       <c r="C80" t="s">
         <v>614</v>
       </c>
@@ -13602,6 +13764,9 @@
       <c r="A81" t="s">
         <v>428</v>
       </c>
+      <c r="B81" t="s">
+        <v>617</v>
+      </c>
       <c r="C81" t="s">
         <v>614</v>
       </c>
@@ -13634,6 +13799,9 @@
       <c r="A82" t="s">
         <v>429</v>
       </c>
+      <c r="B82" t="s">
+        <v>617</v>
+      </c>
       <c r="C82" t="s">
         <v>614</v>
       </c>
@@ -13666,6 +13834,9 @@
       <c r="A83" t="s">
         <v>430</v>
       </c>
+      <c r="B83" t="s">
+        <v>617</v>
+      </c>
       <c r="C83" t="s">
         <v>614</v>
       </c>
@@ -13698,6 +13869,9 @@
       <c r="A84" t="s">
         <v>442</v>
       </c>
+      <c r="B84" t="s">
+        <v>617</v>
+      </c>
       <c r="C84" t="s">
         <v>614</v>
       </c>
@@ -13730,6 +13904,9 @@
       <c r="A85" t="s">
         <v>482</v>
       </c>
+      <c r="B85" t="s">
+        <v>617</v>
+      </c>
       <c r="C85" t="s">
         <v>614</v>
       </c>
@@ -13762,6 +13939,9 @@
       <c r="A86" t="s">
         <v>483</v>
       </c>
+      <c r="B86" t="s">
+        <v>617</v>
+      </c>
       <c r="C86" t="s">
         <v>614</v>
       </c>
@@ -13794,6 +13974,9 @@
       <c r="A87" t="s">
         <v>484</v>
       </c>
+      <c r="B87" t="s">
+        <v>617</v>
+      </c>
       <c r="C87" t="s">
         <v>614</v>
       </c>
@@ -13826,6 +14009,9 @@
       <c r="A88" t="s">
         <v>516</v>
       </c>
+      <c r="B88" t="s">
+        <v>617</v>
+      </c>
       <c r="C88" t="s">
         <v>614</v>
       </c>
@@ -13858,6 +14044,9 @@
       <c r="A89" t="s">
         <v>518</v>
       </c>
+      <c r="B89" t="s">
+        <v>617</v>
+      </c>
       <c r="C89" t="s">
         <v>614</v>
       </c>
@@ -13890,6 +14079,9 @@
       <c r="A90" t="s">
         <v>519</v>
       </c>
+      <c r="B90" t="s">
+        <v>617</v>
+      </c>
       <c r="C90" t="s">
         <v>614</v>
       </c>
@@ -13922,6 +14114,9 @@
       <c r="A91" t="s">
         <v>520</v>
       </c>
+      <c r="B91" t="s">
+        <v>617</v>
+      </c>
       <c r="C91" t="s">
         <v>614</v>
       </c>
@@ -13954,6 +14149,9 @@
       <c r="A92" t="s">
         <v>521</v>
       </c>
+      <c r="B92" t="s">
+        <v>617</v>
+      </c>
       <c r="C92" t="s">
         <v>614</v>
       </c>
@@ -13986,6 +14184,9 @@
       <c r="A93" t="s">
         <v>523</v>
       </c>
+      <c r="B93" t="s">
+        <v>617</v>
+      </c>
       <c r="C93" t="s">
         <v>614</v>
       </c>
@@ -14018,6 +14219,9 @@
       <c r="A94" t="s">
         <v>524</v>
       </c>
+      <c r="B94" t="s">
+        <v>617</v>
+      </c>
       <c r="C94" t="s">
         <v>614</v>
       </c>
@@ -14050,6 +14254,9 @@
       <c r="A95" t="s">
         <v>525</v>
       </c>
+      <c r="B95" t="s">
+        <v>617</v>
+      </c>
       <c r="C95" t="s">
         <v>614</v>
       </c>
@@ -14082,6 +14289,9 @@
       <c r="A96" t="s">
         <v>527</v>
       </c>
+      <c r="B96" t="s">
+        <v>617</v>
+      </c>
       <c r="C96" t="s">
         <v>614</v>
       </c>
@@ -14114,6 +14324,9 @@
       <c r="A97" t="s">
         <v>528</v>
       </c>
+      <c r="B97" t="s">
+        <v>617</v>
+      </c>
       <c r="C97" t="s">
         <v>614</v>
       </c>
@@ -14146,6 +14359,9 @@
       <c r="A98" t="s">
         <v>112</v>
       </c>
+      <c r="B98" t="s">
+        <v>617</v>
+      </c>
       <c r="C98" t="s">
         <v>614</v>
       </c>
@@ -14178,6 +14394,9 @@
       <c r="A99" t="s">
         <v>114</v>
       </c>
+      <c r="B99" t="s">
+        <v>617</v>
+      </c>
       <c r="C99" t="s">
         <v>614</v>
       </c>
@@ -14210,6 +14429,9 @@
       <c r="A100" t="s">
         <v>450</v>
       </c>
+      <c r="B100" t="s">
+        <v>617</v>
+      </c>
       <c r="C100" t="s">
         <v>614</v>
       </c>
@@ -14242,6 +14464,9 @@
       <c r="A101" t="s">
         <v>451</v>
       </c>
+      <c r="B101" t="s">
+        <v>617</v>
+      </c>
       <c r="C101" t="s">
         <v>614</v>
       </c>
@@ -14274,6 +14499,9 @@
       <c r="A102" t="s">
         <v>461</v>
       </c>
+      <c r="B102" t="s">
+        <v>617</v>
+      </c>
       <c r="C102" t="s">
         <v>614</v>
       </c>
@@ -14306,6 +14534,9 @@
       <c r="A103" t="s">
         <v>463</v>
       </c>
+      <c r="B103" t="s">
+        <v>617</v>
+      </c>
       <c r="C103" t="s">
         <v>614</v>
       </c>
@@ -14338,6 +14569,9 @@
       <c r="A104" t="s">
         <v>464</v>
       </c>
+      <c r="B104" t="s">
+        <v>617</v>
+      </c>
       <c r="C104" t="s">
         <v>614</v>
       </c>
@@ -14370,6 +14604,9 @@
       <c r="A105" t="s">
         <v>465</v>
       </c>
+      <c r="B105" t="s">
+        <v>617</v>
+      </c>
       <c r="C105" t="s">
         <v>614</v>
       </c>
@@ -14402,6 +14639,9 @@
       <c r="A106" t="s">
         <v>496</v>
       </c>
+      <c r="B106" t="s">
+        <v>617</v>
+      </c>
       <c r="C106" t="s">
         <v>614</v>
       </c>
@@ -14434,6 +14674,9 @@
       <c r="A107" t="s">
         <v>497</v>
       </c>
+      <c r="B107" t="s">
+        <v>617</v>
+      </c>
       <c r="C107" t="s">
         <v>614</v>
       </c>
@@ -14466,6 +14709,9 @@
       <c r="A108" t="s">
         <v>498</v>
       </c>
+      <c r="B108" t="s">
+        <v>617</v>
+      </c>
       <c r="C108" t="s">
         <v>614</v>
       </c>
@@ -14498,6 +14744,9 @@
       <c r="A109" t="s">
         <v>499</v>
       </c>
+      <c r="B109" t="s">
+        <v>617</v>
+      </c>
       <c r="C109" t="s">
         <v>614</v>
       </c>
@@ -14530,6 +14779,9 @@
       <c r="A110" t="s">
         <v>500</v>
       </c>
+      <c r="B110" t="s">
+        <v>617</v>
+      </c>
       <c r="C110" t="s">
         <v>614</v>
       </c>
@@ -14562,6 +14814,9 @@
       <c r="A111" t="s">
         <v>530</v>
       </c>
+      <c r="B111" t="s">
+        <v>617</v>
+      </c>
       <c r="C111" t="s">
         <v>614</v>
       </c>
@@ -14594,6 +14849,9 @@
       <c r="A112" t="s">
         <v>532</v>
       </c>
+      <c r="B112" t="s">
+        <v>617</v>
+      </c>
       <c r="C112" t="s">
         <v>614</v>
       </c>
@@ -14626,6 +14884,9 @@
       <c r="A113" t="s">
         <v>533</v>
       </c>
+      <c r="B113" t="s">
+        <v>617</v>
+      </c>
       <c r="C113" t="s">
         <v>614</v>
       </c>
@@ -14658,6 +14919,9 @@
       <c r="A114" t="s">
         <v>534</v>
       </c>
+      <c r="B114" t="s">
+        <v>617</v>
+      </c>
       <c r="C114" t="s">
         <v>614</v>
       </c>
@@ -14690,6 +14954,9 @@
       <c r="A115" t="s">
         <v>115</v>
       </c>
+      <c r="B115" t="s">
+        <v>617</v>
+      </c>
       <c r="C115" t="s">
         <v>614</v>
       </c>
@@ -14722,6 +14989,9 @@
       <c r="A116" t="s">
         <v>116</v>
       </c>
+      <c r="B116" t="s">
+        <v>617</v>
+      </c>
       <c r="C116" t="s">
         <v>614</v>
       </c>
@@ -14754,6 +15024,9 @@
       <c r="A117" t="s">
         <v>117</v>
       </c>
+      <c r="B117" t="s">
+        <v>617</v>
+      </c>
       <c r="C117" t="s">
         <v>614</v>
       </c>
@@ -14786,6 +15059,9 @@
       <c r="A118" t="s">
         <v>432</v>
       </c>
+      <c r="B118" t="s">
+        <v>617</v>
+      </c>
       <c r="C118" t="s">
         <v>614</v>
       </c>
@@ -14818,6 +15094,9 @@
       <c r="A119" t="s">
         <v>434</v>
       </c>
+      <c r="B119" t="s">
+        <v>617</v>
+      </c>
       <c r="C119" t="s">
         <v>614</v>
       </c>
@@ -14850,6 +15129,9 @@
       <c r="A120" t="s">
         <v>435</v>
       </c>
+      <c r="B120" t="s">
+        <v>617</v>
+      </c>
       <c r="C120" t="s">
         <v>614</v>
       </c>
@@ -14882,6 +15164,9 @@
       <c r="A121" t="s">
         <v>436</v>
       </c>
+      <c r="B121" t="s">
+        <v>617</v>
+      </c>
       <c r="C121" t="s">
         <v>614</v>
       </c>
@@ -14914,6 +15199,9 @@
       <c r="A122" t="s">
         <v>437</v>
       </c>
+      <c r="B122" t="s">
+        <v>617</v>
+      </c>
       <c r="C122" t="s">
         <v>614</v>
       </c>
@@ -14946,6 +15234,9 @@
       <c r="A123" t="s">
         <v>438</v>
       </c>
+      <c r="B123" t="s">
+        <v>617</v>
+      </c>
       <c r="C123" t="s">
         <v>614</v>
       </c>
@@ -14978,6 +15269,9 @@
       <c r="A124" t="s">
         <v>494</v>
       </c>
+      <c r="B124" t="s">
+        <v>617</v>
+      </c>
       <c r="C124" t="s">
         <v>614</v>
       </c>
@@ -15010,6 +15304,9 @@
       <c r="A125" t="s">
         <v>111</v>
       </c>
+      <c r="B125" t="s">
+        <v>617</v>
+      </c>
       <c r="C125" t="s">
         <v>614</v>
       </c>
@@ -15042,6 +15339,9 @@
       <c r="A126" t="s">
         <v>417</v>
       </c>
+      <c r="B126" t="s">
+        <v>617</v>
+      </c>
       <c r="C126" t="s">
         <v>614</v>
       </c>
@@ -15074,6 +15374,9 @@
       <c r="A127" t="s">
         <v>433</v>
       </c>
+      <c r="B127" t="s">
+        <v>617</v>
+      </c>
       <c r="C127" t="s">
         <v>614</v>
       </c>
@@ -15106,6 +15409,9 @@
       <c r="A128" t="s">
         <v>456</v>
       </c>
+      <c r="B128" t="s">
+        <v>617</v>
+      </c>
       <c r="C128" t="s">
         <v>614</v>
       </c>
@@ -15138,6 +15444,9 @@
       <c r="A129" t="s">
         <v>467</v>
       </c>
+      <c r="B129" t="s">
+        <v>617</v>
+      </c>
       <c r="C129" t="s">
         <v>614</v>
       </c>
@@ -15170,6 +15479,9 @@
       <c r="A130" t="s">
         <v>514</v>
       </c>
+      <c r="B130" t="s">
+        <v>617</v>
+      </c>
       <c r="C130" t="s">
         <v>614</v>
       </c>
@@ -15202,6 +15514,9 @@
       <c r="A131" t="s">
         <v>531</v>
       </c>
+      <c r="B131" t="s">
+        <v>617</v>
+      </c>
       <c r="C131" t="s">
         <v>614</v>
       </c>
@@ -15234,6 +15549,9 @@
       <c r="A132" t="s">
         <v>535</v>
       </c>
+      <c r="B132" t="s">
+        <v>617</v>
+      </c>
       <c r="C132" t="s">
         <v>614</v>
       </c>
@@ -15266,6 +15584,9 @@
       <c r="A133" t="s">
         <v>545</v>
       </c>
+      <c r="B133" t="s">
+        <v>617</v>
+      </c>
       <c r="C133" t="s">
         <v>614</v>
       </c>
@@ -15298,6 +15619,9 @@
       <c r="A134" t="s">
         <v>574</v>
       </c>
+      <c r="B134" t="s">
+        <v>617</v>
+      </c>
       <c r="C134" t="s">
         <v>614</v>
       </c>
@@ -15330,6 +15654,9 @@
       <c r="A135" t="s">
         <v>452</v>
       </c>
+      <c r="B135" t="s">
+        <v>617</v>
+      </c>
       <c r="C135" t="s">
         <v>614</v>
       </c>
@@ -15362,6 +15689,9 @@
       <c r="A136" t="s">
         <v>459</v>
       </c>
+      <c r="B136" t="s">
+        <v>617</v>
+      </c>
       <c r="C136" t="s">
         <v>614</v>
       </c>
@@ -15394,6 +15724,9 @@
       <c r="A137" t="s">
         <v>462</v>
       </c>
+      <c r="B137" t="s">
+        <v>617</v>
+      </c>
       <c r="C137" t="s">
         <v>614</v>
       </c>
@@ -15426,6 +15759,9 @@
       <c r="A138" t="s">
         <v>468</v>
       </c>
+      <c r="B138" t="s">
+        <v>617</v>
+      </c>
       <c r="C138" t="s">
         <v>614</v>
       </c>
@@ -15458,6 +15794,9 @@
       <c r="A139" t="s">
         <v>469</v>
       </c>
+      <c r="B139" t="s">
+        <v>617</v>
+      </c>
       <c r="C139" t="s">
         <v>614</v>
       </c>
@@ -15490,6 +15829,9 @@
       <c r="A140" t="s">
         <v>475</v>
       </c>
+      <c r="B140" t="s">
+        <v>617</v>
+      </c>
       <c r="C140" t="s">
         <v>614</v>
       </c>
@@ -15522,6 +15864,9 @@
       <c r="A141" t="s">
         <v>480</v>
       </c>
+      <c r="B141" t="s">
+        <v>617</v>
+      </c>
       <c r="C141" t="s">
         <v>614</v>
       </c>
@@ -15554,6 +15899,9 @@
       <c r="A142" t="s">
         <v>489</v>
       </c>
+      <c r="B142" t="s">
+        <v>617</v>
+      </c>
       <c r="C142" t="s">
         <v>614</v>
       </c>
@@ -15586,6 +15934,9 @@
       <c r="A143" t="s">
         <v>490</v>
       </c>
+      <c r="B143" t="s">
+        <v>617</v>
+      </c>
       <c r="C143" t="s">
         <v>614</v>
       </c>
@@ -15618,6 +15969,9 @@
       <c r="A144" t="s">
         <v>491</v>
       </c>
+      <c r="B144" t="s">
+        <v>617</v>
+      </c>
       <c r="C144" t="s">
         <v>614</v>
       </c>
@@ -15650,6 +16004,9 @@
       <c r="A145" t="s">
         <v>492</v>
       </c>
+      <c r="B145" t="s">
+        <v>617</v>
+      </c>
       <c r="C145" t="s">
         <v>614</v>
       </c>
@@ -15682,6 +16039,9 @@
       <c r="A146" t="s">
         <v>515</v>
       </c>
+      <c r="B146" t="s">
+        <v>617</v>
+      </c>
       <c r="C146" t="s">
         <v>614</v>
       </c>
@@ -15714,6 +16074,9 @@
       <c r="A147" t="s">
         <v>560</v>
       </c>
+      <c r="B147" t="s">
+        <v>617</v>
+      </c>
       <c r="C147" t="s">
         <v>614</v>
       </c>
@@ -15746,6 +16109,9 @@
       <c r="A148" t="s">
         <v>572</v>
       </c>
+      <c r="B148" t="s">
+        <v>617</v>
+      </c>
       <c r="C148" t="s">
         <v>614</v>
       </c>
@@ -15778,6 +16144,9 @@
       <c r="A149" t="s">
         <v>573</v>
       </c>
+      <c r="B149" t="s">
+        <v>617</v>
+      </c>
       <c r="C149" t="s">
         <v>614</v>
       </c>
@@ -15810,6 +16179,9 @@
       <c r="A150" t="s">
         <v>431</v>
       </c>
+      <c r="B150" t="s">
+        <v>617</v>
+      </c>
       <c r="C150" t="s">
         <v>614</v>
       </c>
@@ -15842,6 +16214,9 @@
       <c r="A151" t="s">
         <v>559</v>
       </c>
+      <c r="B151" t="s">
+        <v>617</v>
+      </c>
       <c r="C151" t="s">
         <v>614</v>
       </c>
@@ -15874,6 +16249,9 @@
       <c r="A152" t="s">
         <v>477</v>
       </c>
+      <c r="B152" t="s">
+        <v>617</v>
+      </c>
       <c r="C152" t="s">
         <v>614</v>
       </c>
@@ -15906,6 +16284,9 @@
       <c r="A153" t="s">
         <v>485</v>
       </c>
+      <c r="B153" t="s">
+        <v>617</v>
+      </c>
       <c r="C153" t="s">
         <v>614</v>
       </c>
@@ -15938,6 +16319,9 @@
       <c r="A154" t="s">
         <v>502</v>
       </c>
+      <c r="B154" t="s">
+        <v>617</v>
+      </c>
       <c r="C154" t="s">
         <v>614</v>
       </c>
@@ -15970,6 +16354,9 @@
       <c r="A155" t="s">
         <v>517</v>
       </c>
+      <c r="B155" t="s">
+        <v>617</v>
+      </c>
       <c r="C155" t="s">
         <v>614</v>
       </c>
@@ -16002,6 +16389,9 @@
       <c r="A156" t="s">
         <v>537</v>
       </c>
+      <c r="B156" t="s">
+        <v>617</v>
+      </c>
       <c r="C156" t="s">
         <v>614</v>
       </c>
@@ -16034,6 +16424,9 @@
       <c r="A157" t="s">
         <v>449</v>
       </c>
+      <c r="B157" t="s">
+        <v>617</v>
+      </c>
       <c r="C157" t="s">
         <v>614</v>
       </c>
@@ -16066,6 +16459,9 @@
       <c r="A158" t="s">
         <v>454</v>
       </c>
+      <c r="B158" t="s">
+        <v>617</v>
+      </c>
       <c r="C158" t="s">
         <v>614</v>
       </c>
@@ -16098,6 +16494,9 @@
       <c r="A159" t="s">
         <v>522</v>
       </c>
+      <c r="B159" t="s">
+        <v>617</v>
+      </c>
       <c r="C159" t="s">
         <v>614</v>
       </c>
@@ -16130,6 +16529,9 @@
       <c r="A160" t="s">
         <v>546</v>
       </c>
+      <c r="B160" t="s">
+        <v>617</v>
+      </c>
       <c r="C160" t="s">
         <v>614</v>
       </c>
@@ -16162,6 +16564,9 @@
       <c r="A161" t="s">
         <v>418</v>
       </c>
+      <c r="B161" t="s">
+        <v>617</v>
+      </c>
       <c r="C161" t="s">
         <v>614</v>
       </c>
@@ -16194,6 +16599,9 @@
       <c r="A162" t="s">
         <v>419</v>
       </c>
+      <c r="B162" t="s">
+        <v>617</v>
+      </c>
       <c r="C162" t="s">
         <v>614</v>
       </c>
@@ -16226,6 +16634,9 @@
       <c r="A163" t="s">
         <v>420</v>
       </c>
+      <c r="B163" t="s">
+        <v>617</v>
+      </c>
       <c r="C163" t="s">
         <v>614</v>
       </c>
@@ -16258,6 +16669,9 @@
       <c r="A164" t="s">
         <v>423</v>
       </c>
+      <c r="B164" t="s">
+        <v>617</v>
+      </c>
       <c r="C164" t="s">
         <v>614</v>
       </c>
@@ -16290,6 +16704,9 @@
       <c r="A165" t="s">
         <v>424</v>
       </c>
+      <c r="B165" t="s">
+        <v>617</v>
+      </c>
       <c r="C165" t="s">
         <v>614</v>
       </c>
@@ -16322,6 +16739,9 @@
       <c r="A166" t="s">
         <v>425</v>
       </c>
+      <c r="B166" t="s">
+        <v>617</v>
+      </c>
       <c r="C166" t="s">
         <v>614</v>
       </c>
@@ -16354,6 +16774,9 @@
       <c r="A167" t="s">
         <v>426</v>
       </c>
+      <c r="B167" t="s">
+        <v>617</v>
+      </c>
       <c r="C167" t="s">
         <v>614</v>
       </c>
@@ -16386,6 +16809,9 @@
       <c r="A168" t="s">
         <v>440</v>
       </c>
+      <c r="B168" t="s">
+        <v>617</v>
+      </c>
       <c r="C168" t="s">
         <v>614</v>
       </c>
@@ -16418,6 +16844,9 @@
       <c r="A169" t="s">
         <v>441</v>
       </c>
+      <c r="B169" t="s">
+        <v>617</v>
+      </c>
       <c r="C169" t="s">
         <v>614</v>
       </c>
@@ -16450,6 +16879,9 @@
       <c r="A170" t="s">
         <v>443</v>
       </c>
+      <c r="B170" t="s">
+        <v>617</v>
+      </c>
       <c r="C170" t="s">
         <v>614</v>
       </c>
@@ -16482,6 +16914,9 @@
       <c r="A171" t="s">
         <v>444</v>
       </c>
+      <c r="B171" t="s">
+        <v>617</v>
+      </c>
       <c r="C171" t="s">
         <v>614</v>
       </c>
@@ -16514,6 +16949,9 @@
       <c r="A172" t="s">
         <v>445</v>
       </c>
+      <c r="B172" t="s">
+        <v>617</v>
+      </c>
       <c r="C172" t="s">
         <v>614</v>
       </c>
@@ -16546,6 +16984,9 @@
       <c r="A173" t="s">
         <v>446</v>
       </c>
+      <c r="B173" t="s">
+        <v>617</v>
+      </c>
       <c r="C173" t="s">
         <v>614</v>
       </c>
@@ -16578,6 +17019,9 @@
       <c r="A174" t="s">
         <v>448</v>
       </c>
+      <c r="B174" t="s">
+        <v>617</v>
+      </c>
       <c r="C174" t="s">
         <v>614</v>
       </c>
@@ -16610,6 +17054,9 @@
       <c r="A175" t="s">
         <v>478</v>
       </c>
+      <c r="B175" t="s">
+        <v>617</v>
+      </c>
       <c r="C175" t="s">
         <v>614</v>
       </c>
@@ -16642,6 +17089,9 @@
       <c r="A176" t="s">
         <v>505</v>
       </c>
+      <c r="B176" t="s">
+        <v>617</v>
+      </c>
       <c r="C176" t="s">
         <v>614</v>
       </c>
@@ -16674,6 +17124,9 @@
       <c r="A177" t="s">
         <v>506</v>
       </c>
+      <c r="B177" t="s">
+        <v>617</v>
+      </c>
       <c r="C177" t="s">
         <v>614</v>
       </c>
@@ -16706,6 +17159,9 @@
       <c r="A178" t="s">
         <v>507</v>
       </c>
+      <c r="B178" t="s">
+        <v>617</v>
+      </c>
       <c r="C178" t="s">
         <v>614</v>
       </c>
@@ -16738,6 +17194,9 @@
       <c r="A179" t="s">
         <v>508</v>
       </c>
+      <c r="B179" t="s">
+        <v>617</v>
+      </c>
       <c r="C179" t="s">
         <v>614</v>
       </c>
@@ -16770,6 +17229,9 @@
       <c r="A180" t="s">
         <v>529</v>
       </c>
+      <c r="B180" t="s">
+        <v>617</v>
+      </c>
       <c r="C180" t="s">
         <v>614</v>
       </c>
@@ -16802,6 +17264,9 @@
       <c r="A181" t="s">
         <v>539</v>
       </c>
+      <c r="B181" t="s">
+        <v>617</v>
+      </c>
       <c r="C181" t="s">
         <v>614</v>
       </c>
@@ -16834,6 +17299,9 @@
       <c r="A182" t="s">
         <v>540</v>
       </c>
+      <c r="B182" t="s">
+        <v>617</v>
+      </c>
       <c r="C182" t="s">
         <v>614</v>
       </c>
@@ -16866,6 +17334,9 @@
       <c r="A183" t="s">
         <v>542</v>
       </c>
+      <c r="B183" t="s">
+        <v>617</v>
+      </c>
       <c r="C183" t="s">
         <v>614</v>
       </c>
@@ -16898,6 +17369,9 @@
       <c r="A184" t="s">
         <v>543</v>
       </c>
+      <c r="B184" t="s">
+        <v>617</v>
+      </c>
       <c r="C184" t="s">
         <v>614</v>
       </c>
@@ -16930,6 +17404,9 @@
       <c r="A185" t="s">
         <v>544</v>
       </c>
+      <c r="B185" t="s">
+        <v>617</v>
+      </c>
       <c r="C185" t="s">
         <v>614</v>
       </c>
@@ -16962,6 +17439,9 @@
       <c r="A186" t="s">
         <v>422</v>
       </c>
+      <c r="B186" t="s">
+        <v>617</v>
+      </c>
       <c r="C186" t="s">
         <v>614</v>
       </c>
@@ -16994,6 +17474,9 @@
       <c r="A187" t="s">
         <v>466</v>
       </c>
+      <c r="B187" t="s">
+        <v>617</v>
+      </c>
       <c r="C187" t="s">
         <v>614</v>
       </c>
@@ -17026,6 +17509,9 @@
       <c r="A188" t="s">
         <v>471</v>
       </c>
+      <c r="B188" t="s">
+        <v>617</v>
+      </c>
       <c r="C188" t="s">
         <v>614</v>
       </c>
@@ -17058,6 +17544,9 @@
       <c r="A189" t="s">
         <v>472</v>
       </c>
+      <c r="B189" t="s">
+        <v>617</v>
+      </c>
       <c r="C189" t="s">
         <v>614</v>
       </c>
@@ -17090,6 +17579,9 @@
       <c r="A190" t="s">
         <v>473</v>
       </c>
+      <c r="B190" t="s">
+        <v>617</v>
+      </c>
       <c r="C190" t="s">
         <v>614</v>
       </c>
@@ -17122,6 +17614,9 @@
       <c r="A191" t="s">
         <v>486</v>
       </c>
+      <c r="B191" t="s">
+        <v>617</v>
+      </c>
       <c r="C191" t="s">
         <v>614</v>
       </c>
@@ -17154,6 +17649,9 @@
       <c r="A192" t="s">
         <v>487</v>
       </c>
+      <c r="B192" t="s">
+        <v>617</v>
+      </c>
       <c r="C192" t="s">
         <v>614</v>
       </c>
@@ -17186,6 +17684,9 @@
       <c r="A193" t="s">
         <v>488</v>
       </c>
+      <c r="B193" t="s">
+        <v>617</v>
+      </c>
       <c r="C193" t="s">
         <v>614</v>
       </c>
@@ -17218,6 +17719,9 @@
       <c r="A194" t="s">
         <v>569</v>
       </c>
+      <c r="B194" t="s">
+        <v>617</v>
+      </c>
       <c r="C194" t="s">
         <v>614</v>
       </c>
@@ -17250,6 +17754,9 @@
       <c r="A195" t="s">
         <v>110</v>
       </c>
+      <c r="B195" t="s">
+        <v>617</v>
+      </c>
       <c r="C195" t="s">
         <v>614</v>
       </c>
@@ -17282,6 +17789,9 @@
       <c r="A196" t="s">
         <v>493</v>
       </c>
+      <c r="B196" t="s">
+        <v>617</v>
+      </c>
       <c r="C196" t="s">
         <v>614</v>
       </c>
@@ -17314,6 +17824,9 @@
       <c r="A197" t="s">
         <v>511</v>
       </c>
+      <c r="B197" t="s">
+        <v>617</v>
+      </c>
       <c r="C197" t="s">
         <v>614</v>
       </c>
@@ -17345,6 +17858,9 @@
     <row r="198" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>550</v>
+      </c>
+      <c r="B198" t="s">
+        <v>617</v>
       </c>
       <c r="C198" t="s">
         <v>614</v>
